--- a/Premier_Games.xlsx
+++ b/Premier_Games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\BetX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC11C79A-EAFE-4DC8-8816-1033C3542F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B10EFD-DCBF-4625-BDE6-F11D11FC8583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6E2649F2-90E9-41C5-96AD-A20E2607CE11}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="25">
   <si>
     <t>Burnley</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
+    <t>Ligue</t>
+  </si>
+  <si>
+    <t>Premier</t>
   </si>
 </sst>
 </file>
@@ -480,4554 +486,5698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A763F32-127F-4A8D-AB17-664404790A11}">
-  <dimension ref="A1:C381"/>
+  <dimension ref="A1:D381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:A381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <f>A2</f>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2">
+        <f>B2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f t="shared" ref="A4:A11" si="0">A3</f>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4:B11" si="0">B3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <f t="shared" ref="A13:A21" si="1">A12</f>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" ref="B13:B21" si="1">B12</f>
         <v>2</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2">
         <v>3</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <f t="shared" ref="A23:A31" si="2">A22</f>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" ref="B23:B31" si="2">B22</f>
         <v>3</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2">
         <v>4</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <f t="shared" ref="A33:A41" si="3">A32</f>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="2">
+        <f t="shared" ref="B33:B41" si="3">B32</f>
         <v>4</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="2">
         <v>5</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <f t="shared" ref="A43:A51" si="4">A42</f>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="2">
+        <f t="shared" ref="B43:B51" si="4">B42</f>
         <v>5</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="2">
         <v>6</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <f t="shared" ref="A53:A61" si="5">A52</f>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="2">
+        <f t="shared" ref="B53:B61" si="5">B52</f>
         <v>6</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" s="2">
         <v>7</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <f t="shared" ref="A63:A71" si="6">A62</f>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="2">
+        <f t="shared" ref="B63:B71" si="6">B62</f>
         <v>7</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B64" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B70" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="2">
         <v>8</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <f t="shared" ref="A73:A81" si="7">A72</f>
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="2">
+        <f t="shared" ref="B73:B81" si="7">B72</f>
         <v>8</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B79" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B80" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="2">
         <v>9</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
-        <f t="shared" ref="A83:A91" si="8">A82</f>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="2">
+        <f t="shared" ref="B83:B91" si="8">B82</f>
         <v>9</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B88" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="2">
         <v>10</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <f t="shared" ref="A93:A101" si="9">A92</f>
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B93" s="2">
+        <f t="shared" ref="B93:B101" si="9">B92</f>
         <v>10</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B94" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B95" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B97" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B99" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B100" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="2">
         <v>11</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <f t="shared" ref="A103:A111" si="10">A102</f>
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B103" s="2">
+        <f t="shared" ref="B103:B111" si="10">B102</f>
         <v>11</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B105" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B106" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B107" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B108" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" s="2">
         <v>12</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <f t="shared" ref="A113:A121" si="11">A112</f>
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113" s="2">
+        <f t="shared" ref="B113:B121" si="11">B112</f>
         <v>12</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B118" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B119" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B120" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B121" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B122" s="2">
         <v>13</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <f t="shared" ref="A123:A131" si="12">A122</f>
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" s="2">
+        <f t="shared" ref="B123:B131" si="12">B122</f>
         <v>13</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B129" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B132" s="2">
         <v>14</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <f t="shared" ref="A133:A141" si="13">A132</f>
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" s="2">
+        <f t="shared" ref="B133:B141" si="13">B132</f>
         <v>14</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B134" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B135" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B137" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B138" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C139" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B140" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B142" s="2">
         <v>15</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2">
-        <f t="shared" ref="A143:A151" si="14">A142</f>
+    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" s="2">
+        <f t="shared" ref="B143:B151" si="14">B142</f>
         <v>15</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2">
+    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="2">
+    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B145" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2">
+    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2">
+    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B147" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2">
+    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B148" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
+    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B149" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
+    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B150" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
+    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
+    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B152" s="2">
         <v>16</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <f t="shared" ref="A153:A161" si="15">A152</f>
+    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B153" s="2">
+        <f t="shared" ref="B153:B161" si="15">B152</f>
         <v>16</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
+    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B154" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
+    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B155" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
+    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
+    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
+    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
+    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B159" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
+    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B160" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
+    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B161" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
+    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B162" s="2">
         <v>17</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2">
-        <f t="shared" ref="A163:A171" si="16">A162</f>
+    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B163" s="2">
+        <f t="shared" ref="B163:B171" si="16">B162</f>
         <v>17</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2">
+    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B164" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2">
+    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B165" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2">
+    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B166" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2">
+    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B167" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="C167" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2">
+    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B168" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2">
+    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B169" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2">
+    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B170" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2">
+    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B171" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2">
+    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B172" s="2">
         <v>18</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <f t="shared" ref="A173:A181" si="17">A172</f>
+    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B173" s="2">
+        <f t="shared" ref="B173:B181" si="17">B172</f>
         <v>18</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="2">
+    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B174" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2">
+    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B175" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2">
+    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B176" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2">
+    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B177" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2">
+    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B178" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2">
+    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B179" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2">
+    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B180" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2">
+    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B181" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="2">
+    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B182" s="2">
         <v>19</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="2">
-        <f t="shared" ref="A183:A191" si="18">A182</f>
+    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B183" s="2">
+        <f t="shared" ref="B183:B191" si="18">B182</f>
         <v>19</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="2">
+    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B184" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="2">
+    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B185" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="2">
+    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B186" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="2">
+    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B187" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="2">
+    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B188" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="2">
+    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B189" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2">
+    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B190" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="2">
+    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B191" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="2">
+    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B192" s="2">
         <v>20</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2">
-        <f t="shared" ref="A193:A201" si="19">A192</f>
+    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B193" s="2">
+        <f t="shared" ref="B193:B201" si="19">B192</f>
         <v>20</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="2">
+    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B194" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="2">
+    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B195" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2">
+    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B196" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2">
+    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B197" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="2">
+    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B198" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="2">
+    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B199" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="2">
+    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B200" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="2">
+    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B201" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="2">
+    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B202" s="2">
         <v>21</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="2">
-        <f t="shared" ref="A203:A211" si="20">A202</f>
+    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B203" s="2">
+        <f t="shared" ref="B203:B211" si="20">B202</f>
         <v>21</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="2">
+    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B204" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="2">
+    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B205" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="2">
+    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B206" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="2">
+    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B207" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="2">
+    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B208" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="2">
+    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B209" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="2">
+    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B210" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="2">
+    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B211" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="2">
+    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B212" s="2">
         <v>22</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="2">
-        <f t="shared" ref="A213:A221" si="21">A212</f>
+    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B213" s="2">
+        <f t="shared" ref="B213:B221" si="21">B212</f>
         <v>22</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="2">
+    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B214" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="2">
+    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B215" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="2">
+    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B216" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="2">
+    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B217" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="2">
+    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B218" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="2">
+    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B219" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="2">
+    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B220" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="2">
+    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B221" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="2">
+    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B222" s="2">
         <v>23</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="2">
-        <f t="shared" ref="A223:A231" si="22">A222</f>
+    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B223" s="2">
+        <f t="shared" ref="B223:B231" si="22">B222</f>
         <v>23</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="D223" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="2">
+    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B224" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="2">
+    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B225" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="2">
+    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B226" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="2">
+    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B227" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="2">
+    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B228" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="2">
+    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B229" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="2">
+    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B230" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="2">
+    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B231" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="2">
-        <v>24</v>
-      </c>
-      <c r="B232" s="1" t="s">
+    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B232" s="2">
+        <v>24</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="2">
-        <f t="shared" ref="A233:A241" si="23">A232</f>
-        <v>24</v>
-      </c>
-      <c r="B233" s="1" t="s">
+    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B233" s="2">
+        <f t="shared" ref="B233:B241" si="23">B232</f>
+        <v>24</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="2">
+    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B234" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="C234" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="2">
+    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B235" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="2">
+    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B236" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="2">
+    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B237" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="C237" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="2">
+    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B238" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="C238" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="2">
+    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B239" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="2">
+    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B240" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="C240" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="2">
+    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B241" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="C241" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="2">
+    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B242" s="2">
         <v>25</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="C242" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="2">
-        <f t="shared" ref="A243:A251" si="24">A242</f>
+    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B243" s="2">
+        <f t="shared" ref="B243:B251" si="24">B242</f>
         <v>25</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="C243" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="2">
+    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B244" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="C244" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="2">
+    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B245" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="2">
+    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B246" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="C246" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="2">
+    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B247" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C247" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="2">
+    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B248" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="C248" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="2">
+    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B249" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="2">
+    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B250" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="C250" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="2">
+    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C251" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="2">
+    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B252" s="2">
         <v>26</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="2">
-        <f t="shared" ref="A253:A261" si="25">A252</f>
+    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B253" s="2">
+        <f t="shared" ref="B253:B261" si="25">B252</f>
         <v>26</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="C253" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="2">
+    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B254" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="2">
+    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B255" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="C255" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="2">
+    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B256" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="C256" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="2">
+    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B257" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="C257" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="2">
+    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B258" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C258" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="2">
+    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B259" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C259" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="2">
+    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B260" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C260" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="2">
+    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B261" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="C261" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="D261" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="2">
+    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B262" s="2">
         <v>27</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="C262" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="2">
-        <f t="shared" ref="A263:A271" si="26">A262</f>
+    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B263" s="2">
+        <f t="shared" ref="B263:B271" si="26">B262</f>
         <v>27</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="C263" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="2">
+    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B264" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="C264" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="2">
+    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B265" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="C265" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="2">
+    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B266" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="2">
+    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B267" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="C267" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="2">
+    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B268" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="2">
+    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B269" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="C269" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="D269" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="2">
+    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B270" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="2">
+    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B271" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="2">
+    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B272" s="2">
         <v>28</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="2">
-        <f t="shared" ref="A273:A281" si="27">A272</f>
+    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B273" s="2">
+        <f t="shared" ref="B273:B281" si="27">B272</f>
         <v>28</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="2">
+    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B274" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="2">
+    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B275" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="C275" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="D275" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="2">
+    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B276" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="C276" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="2">
+    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B277" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="C277" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="2">
+    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B278" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="C278" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="2">
+    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B279" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="2">
+    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B280" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="2">
+    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B281" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="C281" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="D281" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="2">
+    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B282" s="2">
         <v>29</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="D282" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="2">
-        <f t="shared" ref="A283:A291" si="28">A282</f>
+    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" s="2">
+        <f t="shared" ref="B283:B291" si="28">B282</f>
         <v>29</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="C283" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="D283" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="2">
+    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B284" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="C284" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="2">
+    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B285" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="D285" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="2">
+    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B286" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="C286" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="2">
+    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B287" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="C287" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="D287" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="2">
+    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B288" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="C288" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="D288" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="2">
+    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B289" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="C289" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="D289" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="2">
+    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B290" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="C290" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="D290" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="2">
+    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B291" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="C291" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="D291" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="2">
+    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B292" s="2">
         <v>30</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="C292" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="D292" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="2">
-        <f t="shared" ref="A293:A301" si="29">A292</f>
+    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B293" s="2">
+        <f t="shared" ref="B293:B301" si="29">B292</f>
         <v>30</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="C293" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="2">
+    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B294" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="C294" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="D294" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="2">
+    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B295" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="C295" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="D295" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="2">
+    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B296" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="C296" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="D296" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="2">
+    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B297" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="C297" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="D297" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="2">
+    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B298" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="C298" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="D298" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="2">
+    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B299" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="C299" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="D299" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="2">
+    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B300" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="C300" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="D300" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="2">
+    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B301" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="C301" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="D301" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="2">
+    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B302" s="2">
         <v>31</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="C302" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="D302" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="2">
-        <f t="shared" ref="A303:A311" si="30">A302</f>
+    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B303" s="2">
+        <f t="shared" ref="B303:B311" si="30">B302</f>
         <v>31</v>
       </c>
-      <c r="B303" s="1" t="s">
+      <c r="C303" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="2">
+    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B304" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="B304" s="1" t="s">
+      <c r="C304" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="D304" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="2">
+    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B305" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="B305" s="1" t="s">
+      <c r="C305" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="D305" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="2">
+    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B306" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="B306" s="1" t="s">
+      <c r="C306" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="D306" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="2">
+    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B307" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="C307" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="D307" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="2">
+    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B308" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="B308" s="1" t="s">
+      <c r="C308" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="D308" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="2">
+    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B309" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="B309" s="1" t="s">
+      <c r="C309" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="D309" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="2">
+    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B310" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="B310" s="1" t="s">
+      <c r="C310" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="D310" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="2">
+    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B311" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="B311" s="1" t="s">
+      <c r="C311" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="D311" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="2">
+    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B312" s="2">
         <v>32</v>
       </c>
-      <c r="B312" s="1" t="s">
+      <c r="C312" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="D312" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="2">
-        <f t="shared" ref="A313:A321" si="31">A312</f>
+    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B313" s="2">
+        <f t="shared" ref="B313:B321" si="31">B312</f>
         <v>32</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="C313" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="D313" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="2">
+    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B314" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="B314" s="1" t="s">
+      <c r="C314" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="D314" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="2">
+    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B315" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="B315" s="1" t="s">
+      <c r="C315" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="D315" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="2">
+    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B316" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="B316" s="1" t="s">
+      <c r="C316" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="D316" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="2">
+    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B317" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="B317" s="1" t="s">
+      <c r="C317" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="D317" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="2">
+    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B318" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="B318" s="1" t="s">
+      <c r="C318" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="D318" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="2">
+    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B319" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="B319" s="1" t="s">
+      <c r="C319" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="D319" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="2">
+    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B320" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="C320" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="D320" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="2">
+    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B321" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="C321" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="D321" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="2">
+    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B322" s="2">
         <v>33</v>
       </c>
-      <c r="B322" s="1" t="s">
+      <c r="C322" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="D322" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="2">
-        <f t="shared" ref="A323:A331" si="32">A322</f>
+    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B323" s="2">
+        <f t="shared" ref="B323:B331" si="32">B322</f>
         <v>33</v>
       </c>
-      <c r="B323" s="1" t="s">
+      <c r="C323" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="D323" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="2">
+    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B324" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="B324" s="1" t="s">
+      <c r="C324" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="D324" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="2">
+    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B325" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="B325" s="1" t="s">
+      <c r="C325" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="D325" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="2">
+    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B326" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="B326" s="1" t="s">
+      <c r="C326" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="D326" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="2">
+    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B327" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="B327" s="1" t="s">
+      <c r="C327" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="D327" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="2">
+    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B328" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="B328" s="1" t="s">
+      <c r="C328" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="D328" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="2">
+    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B329" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="B329" s="1" t="s">
+      <c r="C329" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="D329" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="2">
+    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B330" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="B330" s="1" t="s">
+      <c r="C330" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="D330" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="2">
+    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B331" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="B331" s="1" t="s">
+      <c r="C331" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="D331" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="2">
+    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B332" s="2">
         <v>34</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="C332" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="D332" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="2">
-        <f t="shared" ref="A333:A341" si="33">A332</f>
+    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B333" s="2">
+        <f t="shared" ref="B333:B341" si="33">B332</f>
         <v>34</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="C333" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="D333" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="2">
+    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B334" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="B334" s="1" t="s">
+      <c r="C334" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="D334" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="2">
+    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B335" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="B335" s="1" t="s">
+      <c r="C335" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="D335" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="2">
+    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B336" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="B336" s="1" t="s">
+      <c r="C336" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="D336" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="2">
+    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B337" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="B337" s="1" t="s">
+      <c r="C337" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="D337" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="2">
+    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B338" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="B338" s="1" t="s">
+      <c r="C338" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="D338" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="2">
+    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B339" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C339" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="D339" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="2">
+    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B340" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="C340" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="D340" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="2">
+    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B341" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="C341" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="D341" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="2">
+    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B342" s="2">
         <v>35</v>
       </c>
-      <c r="B342" s="1" t="s">
+      <c r="C342" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="D342" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="2">
-        <f t="shared" ref="A343:A351" si="34">A342</f>
+    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B343" s="2">
+        <f t="shared" ref="B343:B351" si="34">B342</f>
         <v>35</v>
       </c>
-      <c r="B343" s="1" t="s">
+      <c r="C343" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="D343" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="2">
+    <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B344" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="C344" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="D344" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="2">
+    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B345" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="B345" s="1" t="s">
+      <c r="C345" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="2">
+    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B346" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="B346" s="1" t="s">
+      <c r="C346" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="D346" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="2">
+    <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B347" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="B347" s="1" t="s">
+      <c r="C347" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C347" s="1" t="s">
+      <c r="D347" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="2">
+    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B348" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="B348" s="1" t="s">
+      <c r="C348" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="2">
+    <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B349" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="B349" s="1" t="s">
+      <c r="C349" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="D349" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="2">
+    <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B350" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="C350" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="D350" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="2">
+    <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B351" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="C351" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="2">
+    <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B352" s="2">
         <v>36</v>
       </c>
-      <c r="B352" s="1" t="s">
+      <c r="C352" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="D352" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="2">
-        <f t="shared" ref="A353:A361" si="35">A352</f>
+    <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B353" s="2">
+        <f t="shared" ref="B353:B361" si="35">B352</f>
         <v>36</v>
       </c>
-      <c r="B353" s="1" t="s">
+      <c r="C353" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="D353" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="2">
+    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B354" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="B354" s="1" t="s">
+      <c r="C354" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="D354" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="2">
+    <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B355" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="B355" s="1" t="s">
+      <c r="C355" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="D355" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="2">
+    <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B356" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="B356" s="1" t="s">
+      <c r="C356" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="D356" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="2">
+    <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B357" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="C357" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C357" s="1" t="s">
+      <c r="D357" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="2">
+    <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B358" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="B358" s="1" t="s">
+      <c r="C358" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="D358" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="2">
+    <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B359" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="B359" s="1" t="s">
+      <c r="C359" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C359" s="1" t="s">
+      <c r="D359" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="2">
+    <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B360" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="B360" s="1" t="s">
+      <c r="C360" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="2">
+    <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B361" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="B361" s="1" t="s">
+      <c r="C361" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="D361" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="2">
+    <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B362" s="2">
         <v>37</v>
       </c>
-      <c r="B362" s="1" t="s">
+      <c r="C362" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C362" s="1" t="s">
+      <c r="D362" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="2">
-        <f t="shared" ref="A363:A371" si="36">A362</f>
+    <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B363" s="2">
+        <f t="shared" ref="B363:B371" si="36">B362</f>
         <v>37</v>
       </c>
-      <c r="B363" s="1" t="s">
+      <c r="C363" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="D363" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="2">
+    <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B364" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="B364" s="1" t="s">
+      <c r="C364" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="D364" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="2">
+    <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B365" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="B365" s="1" t="s">
+      <c r="C365" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="D365" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="2">
+    <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B366" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="B366" s="1" t="s">
+      <c r="C366" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="D366" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="2">
+    <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B367" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="B367" s="1" t="s">
+      <c r="C367" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C367" s="1" t="s">
+      <c r="D367" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="2">
+    <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B368" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="B368" s="1" t="s">
+      <c r="C368" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="D368" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="2">
+    <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B369" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="B369" s="1" t="s">
+      <c r="C369" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="D369" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="2">
+    <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B370" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="B370" s="1" t="s">
+      <c r="C370" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C370" s="1" t="s">
+      <c r="D370" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="2">
+    <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B371" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="B371" s="1" t="s">
+      <c r="C371" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C371" s="1" t="s">
+      <c r="D371" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="2">
+    <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B372" s="2">
         <v>38</v>
       </c>
-      <c r="B372" s="1" t="s">
+      <c r="C372" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C372" s="1" t="s">
+      <c r="D372" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="2">
-        <f t="shared" ref="A373:A381" si="37">A372</f>
+    <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B373" s="2">
+        <f t="shared" ref="B373:B381" si="37">B372</f>
         <v>38</v>
       </c>
-      <c r="B373" s="1" t="s">
+      <c r="C373" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="D373" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="2">
+    <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B374" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="B374" s="1" t="s">
+      <c r="C374" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C374" s="1" t="s">
+      <c r="D374" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="2">
+    <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B375" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="B375" s="1" t="s">
+      <c r="C375" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="D375" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="2">
+    <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B376" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="B376" s="1" t="s">
+      <c r="C376" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="D376" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="2">
+    <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B377" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="B377" s="1" t="s">
+      <c r="C377" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C377" s="1" t="s">
+      <c r="D377" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="2">
+    <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B378" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="C378" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="D378" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="2">
+    <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B379" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="B379" s="1" t="s">
+      <c r="C379" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="D379" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="2">
+    <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B380" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="B380" s="1" t="s">
+      <c r="C380" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="D380" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="2">
+    <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B381" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="B381" s="1" t="s">
+      <c r="C381" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="D381" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Premier_Games.xlsx
+++ b/Premier_Games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\BetX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B10EFD-DCBF-4625-BDE6-F11D11FC8583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703CC250-159C-44D8-9C75-B08BC1079F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6E2649F2-90E9-41C5-96AD-A20E2607CE11}"/>
   </bookViews>
@@ -107,10 +107,10 @@
     <t>Brighton &amp; Hove Albion</t>
   </si>
   <si>
-    <t>Ligue</t>
+    <t>Premier</t>
   </si>
   <si>
-    <t>Premier</t>
+    <t>League</t>
   </si>
 </sst>
 </file>
@@ -488,9 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A763F32-127F-4A8D-AB17-664404790A11}">
   <dimension ref="A1:D381"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A381"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -507,7 +505,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -521,7 +519,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -535,7 +533,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2">
         <f>B2</f>
@@ -550,7 +548,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" ref="B4:B11" si="0">B3</f>
@@ -565,7 +563,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
@@ -580,7 +578,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
@@ -595,7 +593,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
@@ -610,7 +608,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
@@ -625,7 +623,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
@@ -640,7 +638,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
@@ -655,7 +653,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
@@ -670,7 +668,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
         <v>2</v>
@@ -684,7 +682,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" ref="B13:B21" si="1">B12</f>
@@ -699,7 +697,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="1"/>
@@ -714,7 +712,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="1"/>
@@ -729,7 +727,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="1"/>
@@ -744,7 +742,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="1"/>
@@ -759,7 +757,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="1"/>
@@ -774,7 +772,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="1"/>
@@ -789,7 +787,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="1"/>
@@ -804,7 +802,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="1"/>
@@ -819,7 +817,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -833,7 +831,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" ref="B23:B31" si="2">B22</f>
@@ -848,7 +846,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="2"/>
@@ -863,7 +861,7 @@
     </row>
     <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="2"/>
@@ -878,7 +876,7 @@
     </row>
     <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="2"/>
@@ -893,7 +891,7 @@
     </row>
     <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="2"/>
@@ -908,7 +906,7 @@
     </row>
     <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="2"/>
@@ -923,7 +921,7 @@
     </row>
     <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="2"/>
@@ -938,7 +936,7 @@
     </row>
     <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="2"/>
@@ -953,7 +951,7 @@
     </row>
     <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="2"/>
@@ -968,7 +966,7 @@
     </row>
     <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2">
         <v>4</v>
@@ -982,7 +980,7 @@
     </row>
     <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" ref="B33:B41" si="3">B32</f>
@@ -997,7 +995,7 @@
     </row>
     <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" si="3"/>
@@ -1012,7 +1010,7 @@
     </row>
     <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" si="3"/>
@@ -1027,7 +1025,7 @@
     </row>
     <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" si="3"/>
@@ -1042,7 +1040,7 @@
     </row>
     <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" si="3"/>
@@ -1057,7 +1055,7 @@
     </row>
     <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" si="3"/>
@@ -1072,7 +1070,7 @@
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" si="3"/>
@@ -1087,7 +1085,7 @@
     </row>
     <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" si="3"/>
@@ -1102,7 +1100,7 @@
     </row>
     <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2">
         <f t="shared" si="3"/>
@@ -1117,7 +1115,7 @@
     </row>
     <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42" s="2">
         <v>5</v>
@@ -1131,7 +1129,7 @@
     </row>
     <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" ref="B43:B51" si="4">B42</f>
@@ -1146,7 +1144,7 @@
     </row>
     <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" si="4"/>
@@ -1161,7 +1159,7 @@
     </row>
     <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" si="4"/>
@@ -1176,7 +1174,7 @@
     </row>
     <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" si="4"/>
@@ -1191,7 +1189,7 @@
     </row>
     <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" si="4"/>
@@ -1206,7 +1204,7 @@
     </row>
     <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" si="4"/>
@@ -1221,7 +1219,7 @@
     </row>
     <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" si="4"/>
@@ -1236,7 +1234,7 @@
     </row>
     <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" si="4"/>
@@ -1251,7 +1249,7 @@
     </row>
     <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" si="4"/>
@@ -1266,7 +1264,7 @@
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52" s="2">
         <v>6</v>
@@ -1280,7 +1278,7 @@
     </row>
     <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" s="2">
         <f t="shared" ref="B53:B61" si="5">B52</f>
@@ -1295,7 +1293,7 @@
     </row>
     <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" si="5"/>
@@ -1310,7 +1308,7 @@
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55" s="2">
         <f t="shared" si="5"/>
@@ -1325,7 +1323,7 @@
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B56" s="2">
         <f t="shared" si="5"/>
@@ -1340,7 +1338,7 @@
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B57" s="2">
         <f t="shared" si="5"/>
@@ -1355,7 +1353,7 @@
     </row>
     <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" s="2">
         <f t="shared" si="5"/>
@@ -1370,7 +1368,7 @@
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59" s="2">
         <f t="shared" si="5"/>
@@ -1385,7 +1383,7 @@
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60" s="2">
         <f t="shared" si="5"/>
@@ -1400,7 +1398,7 @@
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" s="2">
         <f t="shared" si="5"/>
@@ -1415,7 +1413,7 @@
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62" s="2">
         <v>7</v>
@@ -1429,7 +1427,7 @@
     </row>
     <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63" s="2">
         <f t="shared" ref="B63:B71" si="6">B62</f>
@@ -1444,7 +1442,7 @@
     </row>
     <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B64" s="2">
         <f t="shared" si="6"/>
@@ -1459,7 +1457,7 @@
     </row>
     <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65" s="2">
         <f t="shared" si="6"/>
@@ -1474,7 +1472,7 @@
     </row>
     <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B66" s="2">
         <f t="shared" si="6"/>
@@ -1489,7 +1487,7 @@
     </row>
     <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67" s="2">
         <f t="shared" si="6"/>
@@ -1504,7 +1502,7 @@
     </row>
     <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68" s="2">
         <f t="shared" si="6"/>
@@ -1519,7 +1517,7 @@
     </row>
     <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69" s="2">
         <f t="shared" si="6"/>
@@ -1534,7 +1532,7 @@
     </row>
     <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B70" s="2">
         <f t="shared" si="6"/>
@@ -1549,7 +1547,7 @@
     </row>
     <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B71" s="2">
         <f t="shared" si="6"/>
@@ -1564,7 +1562,7 @@
     </row>
     <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B72" s="2">
         <v>8</v>
@@ -1578,7 +1576,7 @@
     </row>
     <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B73" s="2">
         <f t="shared" ref="B73:B81" si="7">B72</f>
@@ -1593,7 +1591,7 @@
     </row>
     <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B74" s="2">
         <f t="shared" si="7"/>
@@ -1608,7 +1606,7 @@
     </row>
     <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B75" s="2">
         <f t="shared" si="7"/>
@@ -1623,7 +1621,7 @@
     </row>
     <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B76" s="2">
         <f t="shared" si="7"/>
@@ -1638,7 +1636,7 @@
     </row>
     <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77" s="2">
         <f t="shared" si="7"/>
@@ -1653,7 +1651,7 @@
     </row>
     <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B78" s="2">
         <f t="shared" si="7"/>
@@ -1668,7 +1666,7 @@
     </row>
     <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B79" s="2">
         <f t="shared" si="7"/>
@@ -1683,7 +1681,7 @@
     </row>
     <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B80" s="2">
         <f t="shared" si="7"/>
@@ -1698,7 +1696,7 @@
     </row>
     <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B81" s="2">
         <f t="shared" si="7"/>
@@ -1713,7 +1711,7 @@
     </row>
     <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B82" s="2">
         <v>9</v>
@@ -1727,7 +1725,7 @@
     </row>
     <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B83" s="2">
         <f t="shared" ref="B83:B91" si="8">B82</f>
@@ -1742,7 +1740,7 @@
     </row>
     <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B84" s="2">
         <f t="shared" si="8"/>
@@ -1757,7 +1755,7 @@
     </row>
     <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B85" s="2">
         <f t="shared" si="8"/>
@@ -1772,7 +1770,7 @@
     </row>
     <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B86" s="2">
         <f t="shared" si="8"/>
@@ -1787,7 +1785,7 @@
     </row>
     <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B87" s="2">
         <f t="shared" si="8"/>
@@ -1802,7 +1800,7 @@
     </row>
     <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B88" s="2">
         <f t="shared" si="8"/>
@@ -1817,7 +1815,7 @@
     </row>
     <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B89" s="2">
         <f t="shared" si="8"/>
@@ -1832,7 +1830,7 @@
     </row>
     <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B90" s="2">
         <f t="shared" si="8"/>
@@ -1847,7 +1845,7 @@
     </row>
     <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B91" s="2">
         <f t="shared" si="8"/>
@@ -1862,7 +1860,7 @@
     </row>
     <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B92" s="2">
         <v>10</v>
@@ -1876,7 +1874,7 @@
     </row>
     <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B93" s="2">
         <f t="shared" ref="B93:B101" si="9">B92</f>
@@ -1891,7 +1889,7 @@
     </row>
     <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94" s="2">
         <f t="shared" si="9"/>
@@ -1906,7 +1904,7 @@
     </row>
     <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B95" s="2">
         <f t="shared" si="9"/>
@@ -1921,7 +1919,7 @@
     </row>
     <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B96" s="2">
         <f t="shared" si="9"/>
@@ -1936,7 +1934,7 @@
     </row>
     <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B97" s="2">
         <f t="shared" si="9"/>
@@ -1951,7 +1949,7 @@
     </row>
     <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B98" s="2">
         <f t="shared" si="9"/>
@@ -1966,7 +1964,7 @@
     </row>
     <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99" s="2">
         <f t="shared" si="9"/>
@@ -1981,7 +1979,7 @@
     </row>
     <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B100" s="2">
         <f t="shared" si="9"/>
@@ -1996,7 +1994,7 @@
     </row>
     <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B101" s="2">
         <f t="shared" si="9"/>
@@ -2011,7 +2009,7 @@
     </row>
     <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B102" s="2">
         <v>11</v>
@@ -2025,7 +2023,7 @@
     </row>
     <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B103" s="2">
         <f t="shared" ref="B103:B111" si="10">B102</f>
@@ -2040,7 +2038,7 @@
     </row>
     <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B104" s="2">
         <f t="shared" si="10"/>
@@ -2055,7 +2053,7 @@
     </row>
     <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B105" s="2">
         <f t="shared" si="10"/>
@@ -2070,7 +2068,7 @@
     </row>
     <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B106" s="2">
         <f t="shared" si="10"/>
@@ -2085,7 +2083,7 @@
     </row>
     <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B107" s="2">
         <f t="shared" si="10"/>
@@ -2100,7 +2098,7 @@
     </row>
     <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B108" s="2">
         <f t="shared" si="10"/>
@@ -2115,7 +2113,7 @@
     </row>
     <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B109" s="2">
         <f t="shared" si="10"/>
@@ -2130,7 +2128,7 @@
     </row>
     <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B110" s="2">
         <f t="shared" si="10"/>
@@ -2145,7 +2143,7 @@
     </row>
     <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B111" s="2">
         <f t="shared" si="10"/>
@@ -2160,7 +2158,7 @@
     </row>
     <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B112" s="2">
         <v>12</v>
@@ -2174,7 +2172,7 @@
     </row>
     <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B113" s="2">
         <f t="shared" ref="B113:B121" si="11">B112</f>
@@ -2189,7 +2187,7 @@
     </row>
     <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B114" s="2">
         <f t="shared" si="11"/>
@@ -2204,7 +2202,7 @@
     </row>
     <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B115" s="2">
         <f t="shared" si="11"/>
@@ -2219,7 +2217,7 @@
     </row>
     <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B116" s="2">
         <f t="shared" si="11"/>
@@ -2234,7 +2232,7 @@
     </row>
     <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B117" s="2">
         <f t="shared" si="11"/>
@@ -2249,7 +2247,7 @@
     </row>
     <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B118" s="2">
         <f t="shared" si="11"/>
@@ -2264,7 +2262,7 @@
     </row>
     <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B119" s="2">
         <f t="shared" si="11"/>
@@ -2279,7 +2277,7 @@
     </row>
     <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B120" s="2">
         <f t="shared" si="11"/>
@@ -2294,7 +2292,7 @@
     </row>
     <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B121" s="2">
         <f t="shared" si="11"/>
@@ -2309,7 +2307,7 @@
     </row>
     <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B122" s="2">
         <v>13</v>
@@ -2323,7 +2321,7 @@
     </row>
     <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B123" s="2">
         <f t="shared" ref="B123:B131" si="12">B122</f>
@@ -2338,7 +2336,7 @@
     </row>
     <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B124" s="2">
         <f t="shared" si="12"/>
@@ -2353,7 +2351,7 @@
     </row>
     <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B125" s="2">
         <f t="shared" si="12"/>
@@ -2368,7 +2366,7 @@
     </row>
     <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B126" s="2">
         <f t="shared" si="12"/>
@@ -2383,7 +2381,7 @@
     </row>
     <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B127" s="2">
         <f t="shared" si="12"/>
@@ -2398,7 +2396,7 @@
     </row>
     <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B128" s="2">
         <f t="shared" si="12"/>
@@ -2413,7 +2411,7 @@
     </row>
     <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B129" s="2">
         <f t="shared" si="12"/>
@@ -2428,7 +2426,7 @@
     </row>
     <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B130" s="2">
         <f t="shared" si="12"/>
@@ -2443,7 +2441,7 @@
     </row>
     <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B131" s="2">
         <f t="shared" si="12"/>
@@ -2458,7 +2456,7 @@
     </row>
     <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B132" s="2">
         <v>14</v>
@@ -2472,7 +2470,7 @@
     </row>
     <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B133" s="2">
         <f t="shared" ref="B133:B141" si="13">B132</f>
@@ -2487,7 +2485,7 @@
     </row>
     <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B134" s="2">
         <f t="shared" si="13"/>
@@ -2502,7 +2500,7 @@
     </row>
     <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B135" s="2">
         <f t="shared" si="13"/>
@@ -2517,7 +2515,7 @@
     </row>
     <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B136" s="2">
         <f t="shared" si="13"/>
@@ -2532,7 +2530,7 @@
     </row>
     <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B137" s="2">
         <f t="shared" si="13"/>
@@ -2547,7 +2545,7 @@
     </row>
     <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B138" s="2">
         <f t="shared" si="13"/>
@@ -2562,7 +2560,7 @@
     </row>
     <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B139" s="2">
         <f t="shared" si="13"/>
@@ -2577,7 +2575,7 @@
     </row>
     <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B140" s="2">
         <f t="shared" si="13"/>
@@ -2592,7 +2590,7 @@
     </row>
     <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B141" s="2">
         <f t="shared" si="13"/>
@@ -2607,7 +2605,7 @@
     </row>
     <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B142" s="2">
         <v>15</v>
@@ -2621,7 +2619,7 @@
     </row>
     <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B143" s="2">
         <f t="shared" ref="B143:B151" si="14">B142</f>
@@ -2636,7 +2634,7 @@
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B144" s="2">
         <f t="shared" si="14"/>
@@ -2651,7 +2649,7 @@
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B145" s="2">
         <f t="shared" si="14"/>
@@ -2666,7 +2664,7 @@
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B146" s="2">
         <f t="shared" si="14"/>
@@ -2681,7 +2679,7 @@
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B147" s="2">
         <f t="shared" si="14"/>
@@ -2696,7 +2694,7 @@
     </row>
     <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B148" s="2">
         <f t="shared" si="14"/>
@@ -2711,7 +2709,7 @@
     </row>
     <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B149" s="2">
         <f t="shared" si="14"/>
@@ -2726,7 +2724,7 @@
     </row>
     <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B150" s="2">
         <f t="shared" si="14"/>
@@ -2741,7 +2739,7 @@
     </row>
     <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B151" s="2">
         <f t="shared" si="14"/>
@@ -2756,7 +2754,7 @@
     </row>
     <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B152" s="2">
         <v>16</v>
@@ -2770,7 +2768,7 @@
     </row>
     <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B153" s="2">
         <f t="shared" ref="B153:B161" si="15">B152</f>
@@ -2785,7 +2783,7 @@
     </row>
     <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B154" s="2">
         <f t="shared" si="15"/>
@@ -2800,7 +2798,7 @@
     </row>
     <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B155" s="2">
         <f t="shared" si="15"/>
@@ -2815,7 +2813,7 @@
     </row>
     <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B156" s="2">
         <f t="shared" si="15"/>
@@ -2830,7 +2828,7 @@
     </row>
     <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B157" s="2">
         <f t="shared" si="15"/>
@@ -2845,7 +2843,7 @@
     </row>
     <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B158" s="2">
         <f t="shared" si="15"/>
@@ -2860,7 +2858,7 @@
     </row>
     <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B159" s="2">
         <f t="shared" si="15"/>
@@ -2875,7 +2873,7 @@
     </row>
     <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B160" s="2">
         <f t="shared" si="15"/>
@@ -2890,7 +2888,7 @@
     </row>
     <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B161" s="2">
         <f t="shared" si="15"/>
@@ -2905,7 +2903,7 @@
     </row>
     <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B162" s="2">
         <v>17</v>
@@ -2919,7 +2917,7 @@
     </row>
     <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B163" s="2">
         <f t="shared" ref="B163:B171" si="16">B162</f>
@@ -2934,7 +2932,7 @@
     </row>
     <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B164" s="2">
         <f t="shared" si="16"/>
@@ -2949,7 +2947,7 @@
     </row>
     <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B165" s="2">
         <f t="shared" si="16"/>
@@ -2964,7 +2962,7 @@
     </row>
     <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B166" s="2">
         <f t="shared" si="16"/>
@@ -2979,7 +2977,7 @@
     </row>
     <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B167" s="2">
         <f t="shared" si="16"/>
@@ -2994,7 +2992,7 @@
     </row>
     <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B168" s="2">
         <f t="shared" si="16"/>
@@ -3009,7 +3007,7 @@
     </row>
     <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B169" s="2">
         <f t="shared" si="16"/>
@@ -3024,7 +3022,7 @@
     </row>
     <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B170" s="2">
         <f t="shared" si="16"/>
@@ -3039,7 +3037,7 @@
     </row>
     <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B171" s="2">
         <f t="shared" si="16"/>
@@ -3054,7 +3052,7 @@
     </row>
     <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B172" s="2">
         <v>18</v>
@@ -3068,7 +3066,7 @@
     </row>
     <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B173" s="2">
         <f t="shared" ref="B173:B181" si="17">B172</f>
@@ -3083,7 +3081,7 @@
     </row>
     <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B174" s="2">
         <f t="shared" si="17"/>
@@ -3098,7 +3096,7 @@
     </row>
     <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B175" s="2">
         <f t="shared" si="17"/>
@@ -3113,7 +3111,7 @@
     </row>
     <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B176" s="2">
         <f t="shared" si="17"/>
@@ -3128,7 +3126,7 @@
     </row>
     <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B177" s="2">
         <f t="shared" si="17"/>
@@ -3143,7 +3141,7 @@
     </row>
     <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B178" s="2">
         <f t="shared" si="17"/>
@@ -3158,7 +3156,7 @@
     </row>
     <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B179" s="2">
         <f t="shared" si="17"/>
@@ -3173,7 +3171,7 @@
     </row>
     <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B180" s="2">
         <f t="shared" si="17"/>
@@ -3188,7 +3186,7 @@
     </row>
     <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B181" s="2">
         <f t="shared" si="17"/>
@@ -3203,7 +3201,7 @@
     </row>
     <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B182" s="2">
         <v>19</v>
@@ -3217,7 +3215,7 @@
     </row>
     <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B183" s="2">
         <f t="shared" ref="B183:B191" si="18">B182</f>
@@ -3232,7 +3230,7 @@
     </row>
     <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B184" s="2">
         <f t="shared" si="18"/>
@@ -3247,7 +3245,7 @@
     </row>
     <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B185" s="2">
         <f t="shared" si="18"/>
@@ -3262,7 +3260,7 @@
     </row>
     <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B186" s="2">
         <f t="shared" si="18"/>
@@ -3277,7 +3275,7 @@
     </row>
     <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B187" s="2">
         <f t="shared" si="18"/>
@@ -3292,7 +3290,7 @@
     </row>
     <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B188" s="2">
         <f t="shared" si="18"/>
@@ -3307,7 +3305,7 @@
     </row>
     <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B189" s="2">
         <f t="shared" si="18"/>
@@ -3322,7 +3320,7 @@
     </row>
     <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B190" s="2">
         <f t="shared" si="18"/>
@@ -3337,7 +3335,7 @@
     </row>
     <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B191" s="2">
         <f t="shared" si="18"/>
@@ -3352,7 +3350,7 @@
     </row>
     <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B192" s="2">
         <v>20</v>
@@ -3366,7 +3364,7 @@
     </row>
     <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B193" s="2">
         <f t="shared" ref="B193:B201" si="19">B192</f>
@@ -3381,7 +3379,7 @@
     </row>
     <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B194" s="2">
         <f t="shared" si="19"/>
@@ -3396,7 +3394,7 @@
     </row>
     <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B195" s="2">
         <f t="shared" si="19"/>
@@ -3411,7 +3409,7 @@
     </row>
     <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B196" s="2">
         <f t="shared" si="19"/>
@@ -3426,7 +3424,7 @@
     </row>
     <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B197" s="2">
         <f t="shared" si="19"/>
@@ -3441,7 +3439,7 @@
     </row>
     <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B198" s="2">
         <f t="shared" si="19"/>
@@ -3456,7 +3454,7 @@
     </row>
     <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B199" s="2">
         <f t="shared" si="19"/>
@@ -3471,7 +3469,7 @@
     </row>
     <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B200" s="2">
         <f t="shared" si="19"/>
@@ -3486,7 +3484,7 @@
     </row>
     <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B201" s="2">
         <f t="shared" si="19"/>
@@ -3501,7 +3499,7 @@
     </row>
     <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B202" s="2">
         <v>21</v>
@@ -3515,7 +3513,7 @@
     </row>
     <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B203" s="2">
         <f t="shared" ref="B203:B211" si="20">B202</f>
@@ -3530,7 +3528,7 @@
     </row>
     <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B204" s="2">
         <f t="shared" si="20"/>
@@ -3545,7 +3543,7 @@
     </row>
     <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B205" s="2">
         <f t="shared" si="20"/>
@@ -3560,7 +3558,7 @@
     </row>
     <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B206" s="2">
         <f t="shared" si="20"/>
@@ -3575,7 +3573,7 @@
     </row>
     <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B207" s="2">
         <f t="shared" si="20"/>
@@ -3590,7 +3588,7 @@
     </row>
     <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B208" s="2">
         <f t="shared" si="20"/>
@@ -3605,7 +3603,7 @@
     </row>
     <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B209" s="2">
         <f t="shared" si="20"/>
@@ -3620,7 +3618,7 @@
     </row>
     <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B210" s="2">
         <f t="shared" si="20"/>
@@ -3635,7 +3633,7 @@
     </row>
     <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B211" s="2">
         <f t="shared" si="20"/>
@@ -3650,7 +3648,7 @@
     </row>
     <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B212" s="2">
         <v>22</v>
@@ -3664,7 +3662,7 @@
     </row>
     <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B213" s="2">
         <f t="shared" ref="B213:B221" si="21">B212</f>
@@ -3679,7 +3677,7 @@
     </row>
     <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B214" s="2">
         <f t="shared" si="21"/>
@@ -3694,7 +3692,7 @@
     </row>
     <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B215" s="2">
         <f t="shared" si="21"/>
@@ -3709,7 +3707,7 @@
     </row>
     <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B216" s="2">
         <f t="shared" si="21"/>
@@ -3724,7 +3722,7 @@
     </row>
     <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B217" s="2">
         <f t="shared" si="21"/>
@@ -3739,7 +3737,7 @@
     </row>
     <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B218" s="2">
         <f t="shared" si="21"/>
@@ -3754,7 +3752,7 @@
     </row>
     <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B219" s="2">
         <f t="shared" si="21"/>
@@ -3769,7 +3767,7 @@
     </row>
     <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B220" s="2">
         <f t="shared" si="21"/>
@@ -3784,7 +3782,7 @@
     </row>
     <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B221" s="2">
         <f t="shared" si="21"/>
@@ -3799,7 +3797,7 @@
     </row>
     <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B222" s="2">
         <v>23</v>
@@ -3813,7 +3811,7 @@
     </row>
     <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B223" s="2">
         <f t="shared" ref="B223:B231" si="22">B222</f>
@@ -3828,7 +3826,7 @@
     </row>
     <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B224" s="2">
         <f t="shared" si="22"/>
@@ -3843,7 +3841,7 @@
     </row>
     <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B225" s="2">
         <f t="shared" si="22"/>
@@ -3858,7 +3856,7 @@
     </row>
     <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B226" s="2">
         <f t="shared" si="22"/>
@@ -3873,7 +3871,7 @@
     </row>
     <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B227" s="2">
         <f t="shared" si="22"/>
@@ -3888,7 +3886,7 @@
     </row>
     <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B228" s="2">
         <f t="shared" si="22"/>
@@ -3903,7 +3901,7 @@
     </row>
     <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B229" s="2">
         <f t="shared" si="22"/>
@@ -3918,7 +3916,7 @@
     </row>
     <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B230" s="2">
         <f t="shared" si="22"/>
@@ -3933,7 +3931,7 @@
     </row>
     <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B231" s="2">
         <f t="shared" si="22"/>
@@ -3948,7 +3946,7 @@
     </row>
     <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B232" s="2">
         <v>24</v>
@@ -3962,7 +3960,7 @@
     </row>
     <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B233" s="2">
         <f t="shared" ref="B233:B241" si="23">B232</f>
@@ -3977,7 +3975,7 @@
     </row>
     <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B234" s="2">
         <f t="shared" si="23"/>
@@ -3992,7 +3990,7 @@
     </row>
     <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B235" s="2">
         <f t="shared" si="23"/>
@@ -4007,7 +4005,7 @@
     </row>
     <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B236" s="2">
         <f t="shared" si="23"/>
@@ -4022,7 +4020,7 @@
     </row>
     <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B237" s="2">
         <f t="shared" si="23"/>
@@ -4037,7 +4035,7 @@
     </row>
     <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B238" s="2">
         <f t="shared" si="23"/>
@@ -4052,7 +4050,7 @@
     </row>
     <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B239" s="2">
         <f t="shared" si="23"/>
@@ -4067,7 +4065,7 @@
     </row>
     <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B240" s="2">
         <f t="shared" si="23"/>
@@ -4082,7 +4080,7 @@
     </row>
     <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B241" s="2">
         <f t="shared" si="23"/>
@@ -4097,7 +4095,7 @@
     </row>
     <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B242" s="2">
         <v>25</v>
@@ -4111,7 +4109,7 @@
     </row>
     <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B243" s="2">
         <f t="shared" ref="B243:B251" si="24">B242</f>
@@ -4126,7 +4124,7 @@
     </row>
     <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B244" s="2">
         <f t="shared" si="24"/>
@@ -4141,7 +4139,7 @@
     </row>
     <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B245" s="2">
         <f t="shared" si="24"/>
@@ -4156,7 +4154,7 @@
     </row>
     <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B246" s="2">
         <f t="shared" si="24"/>
@@ -4171,7 +4169,7 @@
     </row>
     <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B247" s="2">
         <f t="shared" si="24"/>
@@ -4186,7 +4184,7 @@
     </row>
     <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B248" s="2">
         <f t="shared" si="24"/>
@@ -4201,7 +4199,7 @@
     </row>
     <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B249" s="2">
         <f t="shared" si="24"/>
@@ -4216,7 +4214,7 @@
     </row>
     <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B250" s="2">
         <f t="shared" si="24"/>
@@ -4231,7 +4229,7 @@
     </row>
     <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B251" s="2">
         <f t="shared" si="24"/>
@@ -4246,7 +4244,7 @@
     </row>
     <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B252" s="2">
         <v>26</v>
@@ -4260,7 +4258,7 @@
     </row>
     <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B253" s="2">
         <f t="shared" ref="B253:B261" si="25">B252</f>
@@ -4275,7 +4273,7 @@
     </row>
     <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B254" s="2">
         <f t="shared" si="25"/>
@@ -4290,7 +4288,7 @@
     </row>
     <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B255" s="2">
         <f t="shared" si="25"/>
@@ -4305,7 +4303,7 @@
     </row>
     <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B256" s="2">
         <f t="shared" si="25"/>
@@ -4320,7 +4318,7 @@
     </row>
     <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B257" s="2">
         <f t="shared" si="25"/>
@@ -4335,7 +4333,7 @@
     </row>
     <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B258" s="2">
         <f t="shared" si="25"/>
@@ -4350,7 +4348,7 @@
     </row>
     <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B259" s="2">
         <f t="shared" si="25"/>
@@ -4365,7 +4363,7 @@
     </row>
     <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B260" s="2">
         <f t="shared" si="25"/>
@@ -4380,7 +4378,7 @@
     </row>
     <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B261" s="2">
         <f t="shared" si="25"/>
@@ -4395,7 +4393,7 @@
     </row>
     <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B262" s="2">
         <v>27</v>
@@ -4409,7 +4407,7 @@
     </row>
     <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B263" s="2">
         <f t="shared" ref="B263:B271" si="26">B262</f>
@@ -4424,7 +4422,7 @@
     </row>
     <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B264" s="2">
         <f t="shared" si="26"/>
@@ -4439,7 +4437,7 @@
     </row>
     <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B265" s="2">
         <f t="shared" si="26"/>
@@ -4454,7 +4452,7 @@
     </row>
     <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B266" s="2">
         <f t="shared" si="26"/>
@@ -4469,7 +4467,7 @@
     </row>
     <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B267" s="2">
         <f t="shared" si="26"/>
@@ -4484,7 +4482,7 @@
     </row>
     <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B268" s="2">
         <f t="shared" si="26"/>
@@ -4499,7 +4497,7 @@
     </row>
     <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B269" s="2">
         <f t="shared" si="26"/>
@@ -4514,7 +4512,7 @@
     </row>
     <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B270" s="2">
         <f t="shared" si="26"/>
@@ -4529,7 +4527,7 @@
     </row>
     <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B271" s="2">
         <f t="shared" si="26"/>
@@ -4544,7 +4542,7 @@
     </row>
     <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B272" s="2">
         <v>28</v>
@@ -4558,7 +4556,7 @@
     </row>
     <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B273" s="2">
         <f t="shared" ref="B273:B281" si="27">B272</f>
@@ -4573,7 +4571,7 @@
     </row>
     <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B274" s="2">
         <f t="shared" si="27"/>
@@ -4588,7 +4586,7 @@
     </row>
     <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B275" s="2">
         <f t="shared" si="27"/>
@@ -4603,7 +4601,7 @@
     </row>
     <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B276" s="2">
         <f t="shared" si="27"/>
@@ -4618,7 +4616,7 @@
     </row>
     <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B277" s="2">
         <f t="shared" si="27"/>
@@ -4633,7 +4631,7 @@
     </row>
     <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B278" s="2">
         <f t="shared" si="27"/>
@@ -4648,7 +4646,7 @@
     </row>
     <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B279" s="2">
         <f t="shared" si="27"/>
@@ -4663,7 +4661,7 @@
     </row>
     <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B280" s="2">
         <f t="shared" si="27"/>
@@ -4678,7 +4676,7 @@
     </row>
     <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B281" s="2">
         <f t="shared" si="27"/>
@@ -4693,7 +4691,7 @@
     </row>
     <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B282" s="2">
         <v>29</v>
@@ -4707,7 +4705,7 @@
     </row>
     <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B283" s="2">
         <f t="shared" ref="B283:B291" si="28">B282</f>
@@ -4722,7 +4720,7 @@
     </row>
     <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B284" s="2">
         <f t="shared" si="28"/>
@@ -4737,7 +4735,7 @@
     </row>
     <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B285" s="2">
         <f t="shared" si="28"/>
@@ -4752,7 +4750,7 @@
     </row>
     <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B286" s="2">
         <f t="shared" si="28"/>
@@ -4767,7 +4765,7 @@
     </row>
     <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B287" s="2">
         <f t="shared" si="28"/>
@@ -4782,7 +4780,7 @@
     </row>
     <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B288" s="2">
         <f t="shared" si="28"/>
@@ -4797,7 +4795,7 @@
     </row>
     <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B289" s="2">
         <f t="shared" si="28"/>
@@ -4812,7 +4810,7 @@
     </row>
     <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B290" s="2">
         <f t="shared" si="28"/>
@@ -4827,7 +4825,7 @@
     </row>
     <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B291" s="2">
         <f t="shared" si="28"/>
@@ -4842,7 +4840,7 @@
     </row>
     <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B292" s="2">
         <v>30</v>
@@ -4856,7 +4854,7 @@
     </row>
     <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B293" s="2">
         <f t="shared" ref="B293:B301" si="29">B292</f>
@@ -4871,7 +4869,7 @@
     </row>
     <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B294" s="2">
         <f t="shared" si="29"/>
@@ -4886,7 +4884,7 @@
     </row>
     <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B295" s="2">
         <f t="shared" si="29"/>
@@ -4901,7 +4899,7 @@
     </row>
     <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B296" s="2">
         <f t="shared" si="29"/>
@@ -4916,7 +4914,7 @@
     </row>
     <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B297" s="2">
         <f t="shared" si="29"/>
@@ -4931,7 +4929,7 @@
     </row>
     <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B298" s="2">
         <f t="shared" si="29"/>
@@ -4946,7 +4944,7 @@
     </row>
     <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B299" s="2">
         <f t="shared" si="29"/>
@@ -4961,7 +4959,7 @@
     </row>
     <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B300" s="2">
         <f t="shared" si="29"/>
@@ -4976,7 +4974,7 @@
     </row>
     <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B301" s="2">
         <f t="shared" si="29"/>
@@ -4991,7 +4989,7 @@
     </row>
     <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B302" s="2">
         <v>31</v>
@@ -5005,7 +5003,7 @@
     </row>
     <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B303" s="2">
         <f t="shared" ref="B303:B311" si="30">B302</f>
@@ -5020,7 +5018,7 @@
     </row>
     <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B304" s="2">
         <f t="shared" si="30"/>
@@ -5035,7 +5033,7 @@
     </row>
     <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B305" s="2">
         <f t="shared" si="30"/>
@@ -5050,7 +5048,7 @@
     </row>
     <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B306" s="2">
         <f t="shared" si="30"/>
@@ -5065,7 +5063,7 @@
     </row>
     <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B307" s="2">
         <f t="shared" si="30"/>
@@ -5080,7 +5078,7 @@
     </row>
     <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B308" s="2">
         <f t="shared" si="30"/>
@@ -5095,7 +5093,7 @@
     </row>
     <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B309" s="2">
         <f t="shared" si="30"/>
@@ -5110,7 +5108,7 @@
     </row>
     <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B310" s="2">
         <f t="shared" si="30"/>
@@ -5125,7 +5123,7 @@
     </row>
     <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B311" s="2">
         <f t="shared" si="30"/>
@@ -5140,7 +5138,7 @@
     </row>
     <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B312" s="2">
         <v>32</v>
@@ -5154,7 +5152,7 @@
     </row>
     <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B313" s="2">
         <f t="shared" ref="B313:B321" si="31">B312</f>
@@ -5169,7 +5167,7 @@
     </row>
     <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B314" s="2">
         <f t="shared" si="31"/>
@@ -5184,7 +5182,7 @@
     </row>
     <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B315" s="2">
         <f t="shared" si="31"/>
@@ -5199,7 +5197,7 @@
     </row>
     <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B316" s="2">
         <f t="shared" si="31"/>
@@ -5214,7 +5212,7 @@
     </row>
     <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B317" s="2">
         <f t="shared" si="31"/>
@@ -5229,7 +5227,7 @@
     </row>
     <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B318" s="2">
         <f t="shared" si="31"/>
@@ -5244,7 +5242,7 @@
     </row>
     <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B319" s="2">
         <f t="shared" si="31"/>
@@ -5259,7 +5257,7 @@
     </row>
     <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B320" s="2">
         <f t="shared" si="31"/>
@@ -5274,7 +5272,7 @@
     </row>
     <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B321" s="2">
         <f t="shared" si="31"/>
@@ -5289,7 +5287,7 @@
     </row>
     <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B322" s="2">
         <v>33</v>
@@ -5303,7 +5301,7 @@
     </row>
     <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B323" s="2">
         <f t="shared" ref="B323:B331" si="32">B322</f>
@@ -5318,7 +5316,7 @@
     </row>
     <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B324" s="2">
         <f t="shared" si="32"/>
@@ -5333,7 +5331,7 @@
     </row>
     <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B325" s="2">
         <f t="shared" si="32"/>
@@ -5348,7 +5346,7 @@
     </row>
     <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B326" s="2">
         <f t="shared" si="32"/>
@@ -5363,7 +5361,7 @@
     </row>
     <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B327" s="2">
         <f t="shared" si="32"/>
@@ -5378,7 +5376,7 @@
     </row>
     <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B328" s="2">
         <f t="shared" si="32"/>
@@ -5393,7 +5391,7 @@
     </row>
     <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B329" s="2">
         <f t="shared" si="32"/>
@@ -5408,7 +5406,7 @@
     </row>
     <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B330" s="2">
         <f t="shared" si="32"/>
@@ -5423,7 +5421,7 @@
     </row>
     <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B331" s="2">
         <f t="shared" si="32"/>
@@ -5438,7 +5436,7 @@
     </row>
     <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B332" s="2">
         <v>34</v>
@@ -5452,7 +5450,7 @@
     </row>
     <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B333" s="2">
         <f t="shared" ref="B333:B341" si="33">B332</f>
@@ -5467,7 +5465,7 @@
     </row>
     <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B334" s="2">
         <f t="shared" si="33"/>
@@ -5482,7 +5480,7 @@
     </row>
     <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B335" s="2">
         <f t="shared" si="33"/>
@@ -5497,7 +5495,7 @@
     </row>
     <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B336" s="2">
         <f t="shared" si="33"/>
@@ -5512,7 +5510,7 @@
     </row>
     <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B337" s="2">
         <f t="shared" si="33"/>
@@ -5527,7 +5525,7 @@
     </row>
     <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B338" s="2">
         <f t="shared" si="33"/>
@@ -5542,7 +5540,7 @@
     </row>
     <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B339" s="2">
         <f t="shared" si="33"/>
@@ -5557,7 +5555,7 @@
     </row>
     <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B340" s="2">
         <f t="shared" si="33"/>
@@ -5572,7 +5570,7 @@
     </row>
     <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B341" s="2">
         <f t="shared" si="33"/>
@@ -5587,7 +5585,7 @@
     </row>
     <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B342" s="2">
         <v>35</v>
@@ -5601,7 +5599,7 @@
     </row>
     <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B343" s="2">
         <f t="shared" ref="B343:B351" si="34">B342</f>
@@ -5616,7 +5614,7 @@
     </row>
     <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B344" s="2">
         <f t="shared" si="34"/>
@@ -5631,7 +5629,7 @@
     </row>
     <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B345" s="2">
         <f t="shared" si="34"/>
@@ -5646,7 +5644,7 @@
     </row>
     <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B346" s="2">
         <f t="shared" si="34"/>
@@ -5661,7 +5659,7 @@
     </row>
     <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B347" s="2">
         <f t="shared" si="34"/>
@@ -5676,7 +5674,7 @@
     </row>
     <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B348" s="2">
         <f t="shared" si="34"/>
@@ -5691,7 +5689,7 @@
     </row>
     <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B349" s="2">
         <f t="shared" si="34"/>
@@ -5706,7 +5704,7 @@
     </row>
     <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B350" s="2">
         <f t="shared" si="34"/>
@@ -5721,7 +5719,7 @@
     </row>
     <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B351" s="2">
         <f t="shared" si="34"/>
@@ -5736,7 +5734,7 @@
     </row>
     <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B352" s="2">
         <v>36</v>
@@ -5750,7 +5748,7 @@
     </row>
     <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B353" s="2">
         <f t="shared" ref="B353:B361" si="35">B352</f>
@@ -5765,7 +5763,7 @@
     </row>
     <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B354" s="2">
         <f t="shared" si="35"/>
@@ -5780,7 +5778,7 @@
     </row>
     <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B355" s="2">
         <f t="shared" si="35"/>
@@ -5795,7 +5793,7 @@
     </row>
     <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B356" s="2">
         <f t="shared" si="35"/>
@@ -5810,7 +5808,7 @@
     </row>
     <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B357" s="2">
         <f t="shared" si="35"/>
@@ -5825,7 +5823,7 @@
     </row>
     <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B358" s="2">
         <f t="shared" si="35"/>
@@ -5840,7 +5838,7 @@
     </row>
     <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B359" s="2">
         <f t="shared" si="35"/>
@@ -5855,7 +5853,7 @@
     </row>
     <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B360" s="2">
         <f t="shared" si="35"/>
@@ -5870,7 +5868,7 @@
     </row>
     <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B361" s="2">
         <f t="shared" si="35"/>
@@ -5885,7 +5883,7 @@
     </row>
     <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B362" s="2">
         <v>37</v>
@@ -5899,7 +5897,7 @@
     </row>
     <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B363" s="2">
         <f t="shared" ref="B363:B371" si="36">B362</f>
@@ -5914,7 +5912,7 @@
     </row>
     <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B364" s="2">
         <f t="shared" si="36"/>
@@ -5929,7 +5927,7 @@
     </row>
     <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B365" s="2">
         <f t="shared" si="36"/>
@@ -5944,7 +5942,7 @@
     </row>
     <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B366" s="2">
         <f t="shared" si="36"/>
@@ -5959,7 +5957,7 @@
     </row>
     <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B367" s="2">
         <f t="shared" si="36"/>
@@ -5974,7 +5972,7 @@
     </row>
     <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B368" s="2">
         <f t="shared" si="36"/>
@@ -5989,7 +5987,7 @@
     </row>
     <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B369" s="2">
         <f t="shared" si="36"/>
@@ -6004,7 +6002,7 @@
     </row>
     <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B370" s="2">
         <f t="shared" si="36"/>
@@ -6019,7 +6017,7 @@
     </row>
     <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B371" s="2">
         <f t="shared" si="36"/>
@@ -6034,7 +6032,7 @@
     </row>
     <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B372" s="2">
         <v>38</v>
@@ -6048,7 +6046,7 @@
     </row>
     <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B373" s="2">
         <f t="shared" ref="B373:B381" si="37">B372</f>
@@ -6063,7 +6061,7 @@
     </row>
     <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B374" s="2">
         <f t="shared" si="37"/>
@@ -6078,7 +6076,7 @@
     </row>
     <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B375" s="2">
         <f t="shared" si="37"/>
@@ -6093,7 +6091,7 @@
     </row>
     <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B376" s="2">
         <f t="shared" si="37"/>
@@ -6108,7 +6106,7 @@
     </row>
     <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B377" s="2">
         <f t="shared" si="37"/>
@@ -6123,7 +6121,7 @@
     </row>
     <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B378" s="2">
         <f t="shared" si="37"/>
@@ -6138,7 +6136,7 @@
     </row>
     <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B379" s="2">
         <f t="shared" si="37"/>
@@ -6153,7 +6151,7 @@
     </row>
     <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B380" s="2">
         <f t="shared" si="37"/>
@@ -6168,7 +6166,7 @@
     </row>
     <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B381" s="2">
         <f t="shared" si="37"/>

--- a/Premier_Games.xlsx
+++ b/Premier_Games.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\BetX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703CC250-159C-44D8-9C75-B08BC1079F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9556FA-131A-4BA1-BF88-58097D1DFA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6E2649F2-90E9-41C5-96AD-A20E2607CE11}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="26">
   <si>
     <t>Burnley</t>
   </si>
@@ -112,14 +112,34 @@
   <si>
     <t>League</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -160,10 +180,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -172,9 +194,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma 2" xfId="1" xr:uid="{2F5AA0C6-BF5B-46B3-AD73-728D5EF6B23F}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent 2" xfId="2" xr:uid="{9E3FEF63-C095-417A-A669-166E6881B9F1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,5696 +517,6840 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A763F32-127F-4A8D-AB17-664404790A11}">
-  <dimension ref="A1:D381"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45149</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2">
-        <f>B2</f>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2">
+        <f>C2</f>
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" ref="B4:B11" si="0">B3</f>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C11" si="0">C3</f>
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>45150</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>45151</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>45151</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>45152</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" ref="B13:B21" si="1">B12</f>
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:C21" si="1">C12</f>
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="2">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>45157</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
         <v>3</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2">
-        <f t="shared" ref="B23:B31" si="2">B22</f>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" ref="C23:C31" si="2">C22</f>
         <v>3</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="2">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="2">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="2">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="2">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="2">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>45164</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="2">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2">
         <v>4</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B33" s="2">
-        <f t="shared" ref="B33:B41" si="3">B32</f>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" ref="C33:C41" si="3">C32</f>
         <v>4</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="2">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="2">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="2">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="2">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="2">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="2">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B40" s="2">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>45171</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B42" s="2">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2">
         <v>5</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" s="2">
-        <f t="shared" ref="B43:B51" si="4">B42</f>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" ref="C43:C51" si="4">C42</f>
         <v>5</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="2">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="2">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="2">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" s="2">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="2">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="2">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="2">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="2">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="2">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2">
         <v>6</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" s="2">
-        <f t="shared" ref="B53:B61" si="5">B52</f>
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" ref="C53:C61" si="5">C52</f>
         <v>6</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="2">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="2">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" s="2">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" s="2">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="2">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="2">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="2">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="2">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>45192</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B62" s="2">
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="2">
         <v>7</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B63" s="2">
-        <f t="shared" ref="B63:B71" si="6">B62</f>
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" ref="C63:C71" si="6">C62</f>
         <v>7</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B64" s="2">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B65" s="2">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B66" s="2">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="2">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="2">
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B69" s="2">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B70" s="2">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B71" s="2">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="2">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="2">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="2">
         <v>8</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B73" s="2">
-        <f t="shared" ref="B73:B81" si="7">B72</f>
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" ref="C73:C81" si="7">C72</f>
         <v>8</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B74" s="2">
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B75" s="2">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B76" s="2">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B77" s="2">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B78" s="2">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="2">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B80" s="2">
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B81" s="2">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>45206</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="2">
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="2">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="2">
         <v>9</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="2">
-        <f t="shared" ref="B83:B91" si="8">B82</f>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="2">
+        <f t="shared" ref="C83:C91" si="8">C82</f>
         <v>9</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="2">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B85" s="2">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B86" s="2">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="2">
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B88" s="2">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B89" s="2">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" s="2">
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B91" s="2">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>45220</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="2">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="2">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="2">
         <v>10</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B93" s="2">
-        <f t="shared" ref="B93:B101" si="9">B92</f>
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="2">
+        <f t="shared" ref="C93:C101" si="9">C92</f>
         <v>10</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="2">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="2">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B96" s="2">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B97" s="2">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B98" s="2">
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B99" s="2">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B100" s="2">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B101" s="2">
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>45227</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="2">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" s="2">
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="2">
         <v>11</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" s="2">
-        <f t="shared" ref="B103:B111" si="10">B102</f>
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="2">
+        <f t="shared" ref="C103:C111" si="10">C102</f>
         <v>11</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B104" s="2">
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B105" s="2">
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B106" s="2">
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C106" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B107" s="2">
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B108" s="2">
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C108" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B109" s="2">
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110" s="2">
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B111" s="2">
+    <row r="111" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>45234</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="2">
         <f t="shared" si="10"/>
         <v>11</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B112" s="2">
+    <row r="112" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" s="2">
         <v>12</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B113" s="2">
-        <f t="shared" ref="B113:B121" si="11">B112</f>
+    <row r="113" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="2">
+        <f t="shared" ref="C113:C121" si="11">C112</f>
         <v>12</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114" s="2">
+    <row r="114" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B115" s="2">
+    <row r="115" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B116" s="2">
+    <row r="116" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B117" s="2">
+    <row r="117" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B118" s="2">
+    <row r="118" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B119" s="2">
+    <row r="119" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B120" s="2">
+    <row r="120" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B121" s="2">
+    <row r="121" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>45241</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="2">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B122" s="2">
+    <row r="122" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="2">
         <v>13</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B123" s="2">
-        <f t="shared" ref="B123:B131" si="12">B122</f>
+    <row r="123" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="2">
+        <f t="shared" ref="C123:C131" si="12">C122</f>
         <v>13</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B124" s="2">
+    <row r="124" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B125" s="2">
+    <row r="125" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B126" s="2">
+    <row r="126" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B127" s="2">
+    <row r="127" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C127" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B128" s="2">
+    <row r="128" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C128" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B129" s="2">
+    <row r="129" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B130" s="2">
+    <row r="130" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="2">
+    <row r="131" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>45255</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131" s="2">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B132" s="2">
+    <row r="132" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="2">
         <v>14</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B133" s="2">
-        <f t="shared" ref="B133:B141" si="13">B132</f>
+    <row r="133" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" s="2">
+        <f t="shared" ref="C133:C141" si="13">C132</f>
         <v>14</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B134" s="2">
+    <row r="134" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B135" s="2">
+    <row r="135" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B136" s="2">
+    <row r="136" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C136" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B137" s="2">
+    <row r="137" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B138" s="2">
+    <row r="138" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C138" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B139" s="2">
+    <row r="139" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="E139" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B140" s="2">
+    <row r="140" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B141" s="2">
+    <row r="141" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>45262</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="E141" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B142" s="2">
+    <row r="142" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>45265</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142" s="2">
         <v>15</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="E142" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B143" s="2">
-        <f t="shared" ref="B143:B151" si="14">B142</f>
+    <row r="143" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>45265</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" s="2">
+        <f t="shared" ref="C143:C151" si="14">C142</f>
         <v>15</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B144" s="2">
+    <row r="144" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>45265</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="E144" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B145" s="2">
+    <row r="145" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>45265</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="E145" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B146" s="2">
+    <row r="146" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>45265</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="E146" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B147" s="2">
+    <row r="147" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>45265</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B148" s="2">
+    <row r="148" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>45265</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="E148" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B149" s="2">
+    <row r="149" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>45265</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="E149" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B150" s="2">
+    <row r="150" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>45265</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C150" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="E150" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B151" s="2">
+    <row r="151" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>45266</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151" s="2">
         <f t="shared" si="14"/>
         <v>15</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="E151" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B152" s="2">
+    <row r="152" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152" s="2">
         <v>16</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="E152" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B153" s="2">
-        <f t="shared" ref="B153:B161" si="15">B152</f>
+    <row r="153" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C153" s="2">
+        <f t="shared" ref="C153:C161" si="15">C152</f>
         <v>16</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="E153" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B154" s="2">
+    <row r="154" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D154" s="1" t="s">
+      <c r="E154" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B155" s="2">
+    <row r="155" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="E155" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B156" s="2">
+    <row r="156" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="E156" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B157" s="2">
+    <row r="157" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="E157" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B158" s="2">
+    <row r="158" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B159" s="2">
+    <row r="159" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="D159" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B160" s="2">
+    <row r="160" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C160" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B161" s="2">
+    <row r="161" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>45269</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C161" s="2">
         <f t="shared" si="15"/>
         <v>16</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B162" s="2">
+    <row r="162" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" s="2">
         <v>17</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B163" s="2">
-        <f t="shared" ref="B163:B171" si="16">B162</f>
+    <row r="163" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C163" s="2">
+        <f t="shared" ref="C163:C171" si="16">C162</f>
         <v>17</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B164" s="2">
+    <row r="164" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B165" s="2">
+    <row r="165" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B166" s="2">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C166" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B167" s="2">
+    <row r="167" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="D167" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B168" s="2">
+    <row r="168" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C168" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="E168" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B169" s="2">
+    <row r="169" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C169" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="E169" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B170" s="2">
+    <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="E170" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B171" s="2">
+    <row r="171" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>45276</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" s="2">
         <f t="shared" si="16"/>
         <v>17</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B172" s="2">
+    <row r="172" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>45283</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172" s="2">
         <v>18</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="E172" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B173" s="2">
-        <f t="shared" ref="B173:B181" si="17">B172</f>
+    <row r="173" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>45283</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C173" s="2">
+        <f t="shared" ref="C173:C181" si="17">C172</f>
         <v>18</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D173" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="E173" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B174" s="2">
+    <row r="174" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>45283</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C174" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B175" s="2">
+    <row r="175" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>45283</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B176" s="2">
+    <row r="176" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>45283</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C176" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B177" s="2">
+    <row r="177" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>45283</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B178" s="2">
+    <row r="178" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>45283</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="E178" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B179" s="2">
+    <row r="179" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>45283</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B180" s="2">
+    <row r="180" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>45283</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C180" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="E180" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B181" s="2">
+    <row r="181" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>45283</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C181" s="2">
         <f t="shared" si="17"/>
         <v>18</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B182" s="2">
+    <row r="182" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>45286</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C182" s="2">
         <v>19</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B183" s="2">
-        <f t="shared" ref="B183:B191" si="18">B182</f>
+    <row r="183" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>45286</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183" s="2">
+        <f t="shared" ref="C183:C191" si="18">C182</f>
         <v>19</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="E183" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B184" s="2">
+    <row r="184" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>45286</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="D184" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="E184" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B185" s="2">
+    <row r="185" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>45286</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D185" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="E185" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B186" s="2">
+    <row r="186" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>45286</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="E186" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B187" s="2">
+    <row r="187" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>45286</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C187" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B188" s="2">
+    <row r="188" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>45286</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C188" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B189" s="2">
+    <row r="189" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>45286</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C189" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="D189" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="E189" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B190" s="2">
+    <row r="190" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>45286</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C190" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="D190" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="E190" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B191" s="2">
+    <row r="191" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>45286</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C191" s="2">
         <f t="shared" si="18"/>
         <v>19</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="E191" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B192" s="2">
+    <row r="192" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>45290</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" s="2">
         <v>20</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="E192" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B193" s="2">
-        <f t="shared" ref="B193:B201" si="19">B192</f>
+    <row r="193" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>45290</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C193" s="2">
+        <f t="shared" ref="C193:C201" si="19">C192</f>
         <v>20</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="E193" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B194" s="2">
+    <row r="194" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>45290</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="D194" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B195" s="2">
+    <row r="195" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>45290</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C195" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="D195" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="E195" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B196" s="2">
+    <row r="196" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>45290</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="E196" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B197" s="2">
+    <row r="197" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <v>45290</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C197" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D197" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="E197" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B198" s="2">
+    <row r="198" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>45290</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="E198" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B199" s="2">
+    <row r="199" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>45290</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C199" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="D199" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B200" s="2">
+    <row r="200" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>45290</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="E200" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B201" s="2">
+    <row r="201" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>45290</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C201" s="2">
         <f t="shared" si="19"/>
         <v>20</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B202" s="2">
+    <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" s="2">
         <v>21</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D202" s="1" t="s">
+      <c r="E202" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B203" s="2">
-        <f t="shared" ref="B203:B211" si="20">B202</f>
+    <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C203" s="2">
+        <f t="shared" ref="C203:C211" si="20">C202</f>
         <v>21</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="E203" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B204" s="2">
+    <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D204" s="1" t="s">
+      <c r="E204" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B205" s="2">
+    <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C205" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="E205" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B206" s="2">
+    <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C206" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="D206" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="E206" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B207" s="2">
+    <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C207" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="E207" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B208" s="2">
+    <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C208" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="E208" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B209" s="2">
+    <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C209" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D209" s="1" t="s">
+      <c r="E209" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B210" s="2">
+    <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C210" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D210" s="1" t="s">
+      <c r="E210" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B211" s="2">
+    <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>44939</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C211" s="2">
         <f t="shared" si="20"/>
         <v>21</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D211" s="1" t="s">
+      <c r="E211" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B212" s="2">
+    <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>44956</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C212" s="2">
         <v>22</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="D212" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="E212" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B213" s="2">
-        <f t="shared" ref="B213:B221" si="21">B212</f>
+    <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>44956</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C213" s="2">
+        <f t="shared" ref="C213:C221" si="21">C212</f>
         <v>22</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="E213" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B214" s="2">
+    <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>44956</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C214" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="D214" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="E214" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B215" s="2">
+    <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>44956</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C215" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="D215" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="E215" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B216" s="2">
+    <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>44956</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C216" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="E216" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B217" s="2">
+    <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>44956</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C217" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="E217" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B218" s="2">
+    <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>44956</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="E218" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B219" s="2">
+    <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>44956</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="E219" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B220" s="2">
+    <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C220" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="E220" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B221" s="2">
+    <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>44957</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C221" s="2">
         <f t="shared" si="21"/>
         <v>22</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="D221" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D221" s="1" t="s">
+      <c r="E221" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B222" s="2">
-        <v>23</v>
-      </c>
-      <c r="C222" s="1" t="s">
+    <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C222" s="2">
+        <v>23</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="E222" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B223" s="2">
-        <f t="shared" ref="B223:B231" si="22">B222</f>
-        <v>23</v>
-      </c>
-      <c r="C223" s="1" t="s">
+    <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C223" s="2">
+        <f t="shared" ref="C223:C231" si="22">C222</f>
+        <v>23</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="E223" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B224" s="2">
+    <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C224" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="D224" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="E224" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B225" s="2">
+    <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C225" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="D225" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D225" s="1" t="s">
+      <c r="E225" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B226" s="2">
+    <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C226" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D226" s="1" t="s">
+      <c r="E226" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B227" s="2">
+    <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C227" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="D227" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D227" s="1" t="s">
+      <c r="E227" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B228" s="2">
+    <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C228" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D228" s="1" t="s">
+      <c r="E228" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B229" s="2">
+    <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C229" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="D229" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="E229" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B230" s="2">
+    <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C230" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="E230" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B231" s="2">
+    <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>44960</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C231" s="2">
         <f t="shared" si="22"/>
         <v>23</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="E231" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B232" s="2">
+    <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C232" s="2">
         <v>24</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="D232" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="E232" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B233" s="2">
-        <f t="shared" ref="B233:B241" si="23">B232</f>
+    <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C233" s="2">
+        <f t="shared" ref="C233:C241" si="23">C232</f>
         <v>24</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D233" s="1" t="s">
+      <c r="E233" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B234" s="2">
+    <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C234" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="D234" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D234" s="1" t="s">
+      <c r="E234" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B235" s="2">
+    <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C235" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D235" s="1" t="s">
+      <c r="E235" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B236" s="2">
+    <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C236" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D236" s="1" t="s">
+      <c r="E236" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B237" s="2">
+    <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C237" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="D237" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="E237" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B238" s="2">
+    <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C238" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="E238" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B239" s="2">
+    <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C239" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="D239" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="E239" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B240" s="2">
+    <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C240" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="D240" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="E240" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B241" s="2">
+    <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>44967</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C241" s="2">
         <f t="shared" si="23"/>
         <v>24</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D241" s="1" t="s">
+      <c r="E241" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B242" s="2">
+    <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C242" s="2">
         <v>25</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D242" s="1" t="s">
+      <c r="E242" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B243" s="2">
-        <f t="shared" ref="B243:B251" si="24">B242</f>
+    <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C243" s="2">
+        <f t="shared" ref="C243:C251" si="24">C242</f>
         <v>25</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="D243" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D243" s="1" t="s">
+      <c r="E243" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B244" s="2">
+    <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C244" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="D244" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D244" s="1" t="s">
+      <c r="E244" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B245" s="2">
+    <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C245" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="D245" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D245" s="1" t="s">
+      <c r="E245" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B246" s="2">
+    <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C246" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="D246" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D246" s="1" t="s">
+      <c r="E246" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B247" s="2">
+    <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C247" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D247" s="1" t="s">
+      <c r="E247" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B248" s="2">
+    <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C248" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="D248" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D248" s="1" t="s">
+      <c r="E248" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B249" s="2">
+    <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C249" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="E249" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B250" s="2">
+    <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C250" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="D250" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D250" s="1" t="s">
+      <c r="E250" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B251" s="2">
+    <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>44974</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C251" s="2">
         <f t="shared" si="24"/>
         <v>25</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="D251" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D251" s="1" t="s">
+      <c r="E251" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B252" s="2">
+    <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C252" s="2">
         <v>26</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="D252" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D252" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B253" s="2">
-        <f t="shared" ref="B253:B261" si="25">B252</f>
+    <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C253" s="2">
+        <f t="shared" ref="C253:C261" si="25">C252</f>
         <v>26</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D253" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B254" s="2">
+    <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C254" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="D254" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D254" s="1" t="s">
+      <c r="E254" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B255" s="2">
+    <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C255" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D255" s="1" t="s">
+      <c r="E255" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B256" s="2">
+    <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C256" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="D256" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D256" s="1" t="s">
+      <c r="E256" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B257" s="2">
+    <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C257" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D257" s="1" t="s">
+      <c r="E257" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B258" s="2">
+    <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C258" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="D258" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D258" s="1" t="s">
+      <c r="E258" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B259" s="2">
+    <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C259" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="D259" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D259" s="1" t="s">
+      <c r="E259" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B260" s="2">
+    <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C260" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="D260" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D260" s="1" t="s">
+      <c r="E260" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B261" s="2">
+    <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <v>44981</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C261" s="2">
         <f t="shared" si="25"/>
         <v>26</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="D261" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D261" s="1" t="s">
+      <c r="E261" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B262" s="2">
+    <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C262" s="2">
         <v>27</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D262" s="1" t="s">
+      <c r="E262" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B263" s="2">
-        <f t="shared" ref="B263:B271" si="26">B262</f>
+    <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C263" s="2">
+        <f t="shared" ref="C263:C271" si="26">C262</f>
         <v>27</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D263" s="1" t="s">
+      <c r="E263" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B264" s="2">
+    <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C264" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="C264" s="1" t="s">
+      <c r="D264" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D264" s="1" t="s">
+      <c r="E264" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B265" s="2">
+    <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C265" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="C265" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D265" s="1" t="s">
+      <c r="E265" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B266" s="2">
+    <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C266" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="C266" s="1" t="s">
+      <c r="D266" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D266" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B267" s="2">
+    <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C267" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D267" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B268" s="2">
+    <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C268" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D268" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B269" s="2">
+    <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C269" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="C269" s="1" t="s">
+      <c r="D269" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D269" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B270" s="2">
+    <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C270" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="E270" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B271" s="2">
+    <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
+        <v>44987</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C271" s="2">
         <f t="shared" si="26"/>
         <v>27</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="D271" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D271" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B272" s="2">
+    <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C272" s="2">
         <v>28</v>
       </c>
-      <c r="C272" s="1" t="s">
+      <c r="D272" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D272" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B273" s="2">
-        <f t="shared" ref="B273:B281" si="27">B272</f>
+    <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C273" s="2">
+        <f t="shared" ref="C273:C281" si="27">C272</f>
         <v>28</v>
       </c>
-      <c r="C273" s="1" t="s">
+      <c r="D273" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D273" s="1" t="s">
+      <c r="E273" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B274" s="2">
+    <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C274" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="D274" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D274" s="1" t="s">
+      <c r="E274" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B275" s="2">
+    <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C275" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="D275" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D275" s="1" t="s">
+      <c r="E275" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B276" s="2">
+    <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C276" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="D276" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D276" s="1" t="s">
+      <c r="E276" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B277" s="2">
+    <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D277" s="1" t="s">
+      <c r="E277" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B278" s="2">
+    <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C278" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="D278" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D278" s="1" t="s">
+      <c r="E278" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B279" s="2">
+    <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C279" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="C279" s="1" t="s">
+      <c r="D279" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D279" s="1" t="s">
+      <c r="E279" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B280" s="2">
+    <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C280" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="C280" s="1" t="s">
+      <c r="D280" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D280" s="1" t="s">
+      <c r="E280" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B281" s="2">
+    <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
+        <v>44994</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C281" s="2">
         <f t="shared" si="27"/>
         <v>28</v>
       </c>
-      <c r="C281" s="1" t="s">
+      <c r="D281" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D281" s="1" t="s">
+      <c r="E281" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B282" s="2">
+    <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C282" s="2">
         <v>29</v>
       </c>
-      <c r="C282" s="1" t="s">
+      <c r="D282" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D282" s="1" t="s">
+      <c r="E282" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B283" s="2">
-        <f t="shared" ref="B283:B291" si="28">B282</f>
+    <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C283" s="2">
+        <f t="shared" ref="C283:C291" si="28">C282</f>
         <v>29</v>
       </c>
-      <c r="C283" s="1" t="s">
+      <c r="D283" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D283" s="1" t="s">
+      <c r="E283" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B284" s="2">
+    <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C284" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D284" s="1" t="s">
+      <c r="E284" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B285" s="2">
+    <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C285" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="C285" s="1" t="s">
+      <c r="D285" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D285" s="1" t="s">
+      <c r="E285" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B286" s="2">
+    <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C286" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="D286" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D286" s="1" t="s">
+      <c r="E286" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B287" s="2">
+    <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C287" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="C287" s="1" t="s">
+      <c r="D287" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D287" s="1" t="s">
+      <c r="E287" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B288" s="2">
+    <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C288" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="C288" s="1" t="s">
+      <c r="D288" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D288" s="1" t="s">
+      <c r="E288" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B289" s="2">
+    <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C289" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="C289" s="1" t="s">
+      <c r="D289" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D289" s="1" t="s">
+      <c r="E289" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B290" s="2">
+    <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C290" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="C290" s="1" t="s">
+      <c r="D290" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D290" s="1" t="s">
+      <c r="E290" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B291" s="2">
+    <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
+        <v>45001</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C291" s="2">
         <f t="shared" si="28"/>
         <v>29</v>
       </c>
-      <c r="C291" s="1" t="s">
+      <c r="D291" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D291" s="1" t="s">
+      <c r="E291" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B292" s="2">
+    <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C292" s="2">
         <v>30</v>
       </c>
-      <c r="C292" s="1" t="s">
+      <c r="D292" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D292" s="1" t="s">
+      <c r="E292" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B293" s="2">
-        <f t="shared" ref="B293:B301" si="29">B292</f>
+    <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C293" s="2">
+        <f t="shared" ref="C293:C301" si="29">C292</f>
         <v>30</v>
       </c>
-      <c r="C293" s="1" t="s">
+      <c r="D293" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D293" s="1" t="s">
+      <c r="E293" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B294" s="2">
+    <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C294" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="D294" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D294" s="1" t="s">
+      <c r="E294" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B295" s="2">
+    <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C295" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="C295" s="1" t="s">
+      <c r="D295" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D295" s="1" t="s">
+      <c r="E295" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B296" s="2">
+    <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C296" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="C296" s="1" t="s">
+      <c r="D296" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D296" s="1" t="s">
+      <c r="E296" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B297" s="2">
+    <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C297" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="C297" s="1" t="s">
+      <c r="D297" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D297" s="1" t="s">
+      <c r="E297" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B298" s="2">
+    <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C298" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="C298" s="1" t="s">
+      <c r="D298" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D298" s="1" t="s">
+      <c r="E298" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B299" s="2">
+    <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C299" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="C299" s="1" t="s">
+      <c r="D299" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D299" s="1" t="s">
+      <c r="E299" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B300" s="2">
+    <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C300" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="C300" s="1" t="s">
+      <c r="D300" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D300" s="1" t="s">
+      <c r="E300" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B301" s="2">
+    <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="4">
+        <v>45015</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C301" s="2">
         <f t="shared" si="29"/>
         <v>30</v>
       </c>
-      <c r="C301" s="1" t="s">
+      <c r="D301" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D301" s="1" t="s">
+      <c r="E301" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B302" s="2">
+    <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="4">
+        <v>45018</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C302" s="2">
         <v>31</v>
       </c>
-      <c r="C302" s="1" t="s">
+      <c r="D302" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D302" s="1" t="s">
+      <c r="E302" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B303" s="2">
-        <f t="shared" ref="B303:B311" si="30">B302</f>
+    <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="4">
+        <v>45018</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C303" s="2">
+        <f t="shared" ref="C303:C311" si="30">C302</f>
         <v>31</v>
       </c>
-      <c r="C303" s="1" t="s">
+      <c r="D303" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D303" s="1" t="s">
+      <c r="E303" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B304" s="2">
+    <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="4">
+        <v>45018</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C304" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="C304" s="1" t="s">
+      <c r="D304" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D304" s="1" t="s">
+      <c r="E304" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B305" s="2">
+    <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="4">
+        <v>45018</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C305" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="C305" s="1" t="s">
+      <c r="D305" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D305" s="1" t="s">
+      <c r="E305" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B306" s="2">
+    <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="4">
+        <v>45018</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C306" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="D306" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D306" s="1" t="s">
+      <c r="E306" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B307" s="2">
+    <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="4">
+        <v>45018</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C307" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="C307" s="1" t="s">
+      <c r="D307" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D307" s="1" t="s">
+      <c r="E307" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B308" s="2">
+    <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="4">
+        <v>45019</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C308" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="C308" s="1" t="s">
+      <c r="D308" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D308" s="1" t="s">
+      <c r="E308" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B309" s="2">
+    <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="4">
+        <v>45019</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C309" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="D309" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D309" s="1" t="s">
+      <c r="E309" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B310" s="2">
+    <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="4">
+        <v>45019</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C310" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="C310" s="1" t="s">
+      <c r="D310" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D310" s="1" t="s">
+      <c r="E310" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B311" s="2">
+    <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="4">
+        <v>45019</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C311" s="2">
         <f t="shared" si="30"/>
         <v>31</v>
       </c>
-      <c r="C311" s="1" t="s">
+      <c r="D311" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D311" s="1" t="s">
+      <c r="E311" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B312" s="2">
+    <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="4">
+        <v>45022</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C312" s="2">
         <v>32</v>
       </c>
-      <c r="C312" s="1" t="s">
+      <c r="D312" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D312" s="1" t="s">
+      <c r="E312" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B313" s="2">
-        <f t="shared" ref="B313:B321" si="31">B312</f>
+    <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="4">
+        <v>45022</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C313" s="2">
+        <f t="shared" ref="C313:C321" si="31">C312</f>
         <v>32</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="D313" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D313" s="1" t="s">
+      <c r="E313" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B314" s="2">
+    <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="4">
+        <v>45022</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C314" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="C314" s="1" t="s">
+      <c r="D314" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D314" s="1" t="s">
+      <c r="E314" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B315" s="2">
+    <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="4">
+        <v>45022</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C315" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="C315" s="1" t="s">
+      <c r="D315" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D315" s="1" t="s">
+      <c r="E315" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B316" s="2">
+    <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="4">
+        <v>45022</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C316" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="C316" s="1" t="s">
+      <c r="D316" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D316" s="1" t="s">
+      <c r="E316" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B317" s="2">
+    <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="4">
+        <v>45022</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C317" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="C317" s="1" t="s">
+      <c r="D317" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D317" s="1" t="s">
+      <c r="E317" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B318" s="2">
+    <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="4">
+        <v>45022</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C318" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="C318" s="1" t="s">
+      <c r="D318" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D318" s="1" t="s">
+      <c r="E318" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B319" s="2">
+    <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="4">
+        <v>45022</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C319" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="C319" s="1" t="s">
+      <c r="D319" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D319" s="1" t="s">
+      <c r="E319" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B320" s="2">
+    <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="4">
+        <v>45022</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C320" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="C320" s="1" t="s">
+      <c r="D320" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D320" s="1" t="s">
+      <c r="E320" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B321" s="2">
+    <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="4">
+        <v>45022</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C321" s="2">
         <f t="shared" si="31"/>
         <v>32</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="D321" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D321" s="1" t="s">
+      <c r="E321" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B322" s="2">
+    <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C322" s="2">
         <v>33</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="D322" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D322" s="1" t="s">
+      <c r="E322" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B323" s="2">
-        <f t="shared" ref="B323:B331" si="32">B322</f>
+    <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C323" s="2">
+        <f t="shared" ref="C323:C331" si="32">C322</f>
         <v>33</v>
       </c>
-      <c r="C323" s="1" t="s">
+      <c r="D323" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D323" s="1" t="s">
+      <c r="E323" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B324" s="2">
+    <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C324" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="C324" s="1" t="s">
+      <c r="D324" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D324" s="1" t="s">
+      <c r="E324" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B325" s="2">
+    <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C325" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="C325" s="1" t="s">
+      <c r="D325" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D325" s="1" t="s">
+      <c r="E325" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B326" s="2">
+    <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C326" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="D326" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D326" s="1" t="s">
+      <c r="E326" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B327" s="2">
+    <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C327" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="C327" s="1" t="s">
+      <c r="D327" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D327" s="1" t="s">
+      <c r="E327" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B328" s="2">
+    <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C328" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="C328" s="1" t="s">
+      <c r="D328" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D328" s="1" t="s">
+      <c r="E328" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B329" s="2">
+    <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C329" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="D329" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D329" s="1" t="s">
+      <c r="E329" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B330" s="2">
+    <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C330" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="C330" s="1" t="s">
+      <c r="D330" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D330" s="1" t="s">
+      <c r="E330" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B331" s="2">
+    <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="4">
+        <v>45029</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C331" s="2">
         <f t="shared" si="32"/>
         <v>33</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="D331" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D331" s="1" t="s">
+      <c r="E331" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B332" s="2">
+    <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C332" s="2">
         <v>34</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="D332" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D332" s="1" t="s">
+      <c r="E332" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B333" s="2">
-        <f t="shared" ref="B333:B341" si="33">B332</f>
+    <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C333" s="2">
+        <f t="shared" ref="C333:C341" si="33">C332</f>
         <v>34</v>
       </c>
-      <c r="C333" s="1" t="s">
+      <c r="D333" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D333" s="1" t="s">
+      <c r="E333" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B334" s="2">
+    <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C334" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="C334" s="1" t="s">
+      <c r="D334" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D334" s="1" t="s">
+      <c r="E334" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B335" s="2">
+    <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C335" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="C335" s="1" t="s">
+      <c r="D335" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D335" s="1" t="s">
+      <c r="E335" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B336" s="2">
+    <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C336" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="C336" s="1" t="s">
+      <c r="D336" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D336" s="1" t="s">
+      <c r="E336" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B337" s="2">
+    <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C337" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="C337" s="1" t="s">
+      <c r="D337" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D337" s="1" t="s">
+      <c r="E337" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B338" s="2">
+    <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C338" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="C338" s="1" t="s">
+      <c r="D338" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D338" s="1" t="s">
+      <c r="E338" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B339" s="2">
+    <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C339" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="D339" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D339" s="1" t="s">
+      <c r="E339" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B340" s="2">
+    <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C340" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="D340" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D340" s="1" t="s">
+      <c r="E340" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B341" s="2">
+    <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C341" s="2">
         <f t="shared" si="33"/>
         <v>34</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="D341" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D341" s="1" t="s">
+      <c r="E341" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B342" s="2">
+    <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C342" s="2">
         <v>35</v>
       </c>
-      <c r="C342" s="1" t="s">
+      <c r="D342" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D342" s="1" t="s">
+      <c r="E342" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B343" s="2">
-        <f t="shared" ref="B343:B351" si="34">B342</f>
+    <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C343" s="2">
+        <f t="shared" ref="C343:C351" si="34">C342</f>
         <v>35</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="D343" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D343" s="1" t="s">
+      <c r="E343" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B344" s="2">
+    <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C344" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="D344" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D344" s="1" t="s">
+      <c r="E344" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B345" s="2">
+    <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C345" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="C345" s="1" t="s">
+      <c r="D345" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D345" s="1" t="s">
+      <c r="E345" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B346" s="2">
+    <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C346" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="D346" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D346" s="1" t="s">
+      <c r="E346" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B347" s="2">
+    <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C347" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="C347" s="1" t="s">
+      <c r="D347" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D347" s="1" t="s">
+      <c r="E347" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B348" s="2">
+    <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C348" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="C348" s="1" t="s">
+      <c r="D348" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D348" s="1" t="s">
+      <c r="E348" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B349" s="2">
+    <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C349" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="C349" s="1" t="s">
+      <c r="D349" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D349" s="1" t="s">
+      <c r="E349" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B350" s="2">
+    <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C350" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="D350" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D350" s="1" t="s">
+      <c r="E350" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B351" s="2">
+    <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="4">
+        <v>45043</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C351" s="2">
         <f t="shared" si="34"/>
         <v>35</v>
       </c>
-      <c r="C351" s="1" t="s">
+      <c r="D351" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D351" s="1" t="s">
+      <c r="E351" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B352" s="2">
+    <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C352" s="2">
         <v>36</v>
       </c>
-      <c r="C352" s="1" t="s">
+      <c r="D352" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D352" s="1" t="s">
+      <c r="E352" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B353" s="2">
-        <f t="shared" ref="B353:B361" si="35">B352</f>
+    <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C353" s="2">
+        <f t="shared" ref="C353:C361" si="35">C352</f>
         <v>36</v>
       </c>
-      <c r="C353" s="1" t="s">
+      <c r="D353" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D353" s="1" t="s">
+      <c r="E353" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B354" s="2">
+    <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C354" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="C354" s="1" t="s">
+      <c r="D354" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D354" s="1" t="s">
+      <c r="E354" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B355" s="2">
+    <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C355" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="C355" s="1" t="s">
+      <c r="D355" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D355" s="1" t="s">
+      <c r="E355" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B356" s="2">
+    <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C356" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="C356" s="1" t="s">
+      <c r="D356" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D356" s="1" t="s">
+      <c r="E356" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B357" s="2">
+    <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C357" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="C357" s="1" t="s">
+      <c r="D357" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D357" s="1" t="s">
+      <c r="E357" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B358" s="2">
+    <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C358" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="C358" s="1" t="s">
+      <c r="D358" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D358" s="1" t="s">
+      <c r="E358" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B359" s="2">
+    <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C359" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="C359" s="1" t="s">
+      <c r="D359" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D359" s="1" t="s">
+      <c r="E359" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B360" s="2">
+    <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C360" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="C360" s="1" t="s">
+      <c r="D360" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D360" s="1" t="s">
+      <c r="E360" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B361" s="2">
+    <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="4">
+        <v>45050</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C361" s="2">
         <f t="shared" si="35"/>
         <v>36</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="D361" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D361" s="1" t="s">
+      <c r="E361" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B362" s="2">
+    <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C362" s="2">
         <v>37</v>
       </c>
-      <c r="C362" s="1" t="s">
+      <c r="D362" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D362" s="1" t="s">
+      <c r="E362" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B363" s="2">
-        <f t="shared" ref="B363:B371" si="36">B362</f>
+    <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C363" s="2">
+        <f t="shared" ref="C363:C371" si="36">C362</f>
         <v>37</v>
       </c>
-      <c r="C363" s="1" t="s">
+      <c r="D363" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D363" s="1" t="s">
+      <c r="E363" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B364" s="2">
+    <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C364" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="C364" s="1" t="s">
+      <c r="D364" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D364" s="1" t="s">
+      <c r="E364" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B365" s="2">
+    <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C365" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="C365" s="1" t="s">
+      <c r="D365" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D365" s="1" t="s">
+      <c r="E365" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B366" s="2">
+    <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C366" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="C366" s="1" t="s">
+      <c r="D366" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D366" s="1" t="s">
+      <c r="E366" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B367" s="2">
+    <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C367" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="C367" s="1" t="s">
+      <c r="D367" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D367" s="1" t="s">
+      <c r="E367" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B368" s="2">
+    <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C368" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="D368" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D368" s="1" t="s">
+      <c r="E368" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B369" s="2">
+    <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C369" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="C369" s="1" t="s">
+      <c r="D369" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D369" s="1" t="s">
+      <c r="E369" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B370" s="2">
+    <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C370" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="C370" s="1" t="s">
+      <c r="D370" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D370" s="1" t="s">
+      <c r="E370" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B371" s="2">
+    <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="4">
+        <v>45057</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C371" s="2">
         <f t="shared" si="36"/>
         <v>37</v>
       </c>
-      <c r="C371" s="1" t="s">
+      <c r="D371" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D371" s="1" t="s">
+      <c r="E371" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B372" s="2">
+    <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C372" s="2">
         <v>38</v>
       </c>
-      <c r="C372" s="1" t="s">
+      <c r="D372" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D372" s="1" t="s">
+      <c r="E372" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B373" s="2">
-        <f t="shared" ref="B373:B381" si="37">B372</f>
+    <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C373" s="2">
+        <f t="shared" ref="C373:C381" si="37">C372</f>
         <v>38</v>
       </c>
-      <c r="C373" s="1" t="s">
+      <c r="D373" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D373" s="1" t="s">
+      <c r="E373" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B374" s="2">
+    <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C374" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="C374" s="1" t="s">
+      <c r="D374" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D374" s="1" t="s">
+      <c r="E374" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B375" s="2">
+    <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C375" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="C375" s="1" t="s">
+      <c r="D375" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D375" s="1" t="s">
+      <c r="E375" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B376" s="2">
+    <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C376" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="C376" s="1" t="s">
+      <c r="D376" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D376" s="1" t="s">
+      <c r="E376" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B377" s="2">
+    <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C377" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="C377" s="1" t="s">
+      <c r="D377" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D377" s="1" t="s">
+      <c r="E377" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B378" s="2">
+    <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C378" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="D378" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D378" s="1" t="s">
+      <c r="E378" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B379" s="2">
+    <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C379" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="C379" s="1" t="s">
+      <c r="D379" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D379" s="1" t="s">
+      <c r="E379" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B380" s="2">
+    <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C380" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="C380" s="1" t="s">
+      <c r="D380" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D380" s="1" t="s">
+      <c r="E380" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B381" s="2">
+    <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="4">
+        <v>45065</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C381" s="2">
         <f t="shared" si="37"/>
         <v>38</v>
       </c>
-      <c r="C381" s="1" t="s">
+      <c r="D381" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D381" s="1" t="s">
+      <c r="E381" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Premier_Games.xlsx
+++ b/Premier_Games.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artur\BetX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9556FA-131A-4BA1-BF88-58097D1DFA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B26B8B8-A176-4769-BFE5-1063B3D70C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6E2649F2-90E9-41C5-96AD-A20E2607CE11}"/>
   </bookViews>
@@ -197,7 +197,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -519,7 +519,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A763F32-127F-4A8D-AB17-664404790A11}">
   <dimension ref="A1:E381"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A191" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202:A381"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4134,7 +4136,7 @@
     </row>
     <row r="202" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>23</v>
@@ -4151,7 +4153,7 @@
     </row>
     <row r="203" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>23</v>
@@ -4169,7 +4171,7 @@
     </row>
     <row r="204" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>23</v>
@@ -4187,7 +4189,7 @@
     </row>
     <row r="205" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>23</v>
@@ -4205,7 +4207,7 @@
     </row>
     <row r="206" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>23</v>
@@ -4223,7 +4225,7 @@
     </row>
     <row r="207" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>23</v>
@@ -4241,7 +4243,7 @@
     </row>
     <row r="208" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>23</v>
@@ -4259,7 +4261,7 @@
     </row>
     <row r="209" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>23</v>
@@ -4277,7 +4279,7 @@
     </row>
     <row r="210" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>23</v>
@@ -4295,7 +4297,7 @@
     </row>
     <row r="211" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
-        <v>44939</v>
+        <v>45304</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>23</v>
@@ -4313,7 +4315,7 @@
     </row>
     <row r="212" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
-        <v>44956</v>
+        <v>45321</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>23</v>
@@ -4330,7 +4332,7 @@
     </row>
     <row r="213" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
-        <v>44956</v>
+        <v>45321</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>23</v>
@@ -4348,7 +4350,7 @@
     </row>
     <row r="214" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
-        <v>44956</v>
+        <v>45321</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>23</v>
@@ -4366,7 +4368,7 @@
     </row>
     <row r="215" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
-        <v>44956</v>
+        <v>45321</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>23</v>
@@ -4384,7 +4386,7 @@
     </row>
     <row r="216" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
-        <v>44956</v>
+        <v>45321</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>23</v>
@@ -4402,7 +4404,7 @@
     </row>
     <row r="217" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
-        <v>44956</v>
+        <v>45321</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>23</v>
@@ -4420,7 +4422,7 @@
     </row>
     <row r="218" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
-        <v>44956</v>
+        <v>45321</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>23</v>
@@ -4438,7 +4440,7 @@
     </row>
     <row r="219" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
-        <v>44956</v>
+        <v>45321</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>23</v>
@@ -4456,7 +4458,7 @@
     </row>
     <row r="220" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
-        <v>44957</v>
+        <v>45322</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>23</v>
@@ -4474,7 +4476,7 @@
     </row>
     <row r="221" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
-        <v>44957</v>
+        <v>45322</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>23</v>
@@ -4492,7 +4494,7 @@
     </row>
     <row r="222" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>23</v>
@@ -4509,7 +4511,7 @@
     </row>
     <row r="223" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>23</v>
@@ -4527,7 +4529,7 @@
     </row>
     <row r="224" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>23</v>
@@ -4545,7 +4547,7 @@
     </row>
     <row r="225" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>23</v>
@@ -4563,7 +4565,7 @@
     </row>
     <row r="226" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>23</v>
@@ -4581,7 +4583,7 @@
     </row>
     <row r="227" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>23</v>
@@ -4599,7 +4601,7 @@
     </row>
     <row r="228" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>23</v>
@@ -4617,7 +4619,7 @@
     </row>
     <row r="229" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>23</v>
@@ -4635,7 +4637,7 @@
     </row>
     <row r="230" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>23</v>
@@ -4653,7 +4655,7 @@
     </row>
     <row r="231" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
-        <v>44960</v>
+        <v>45325</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>23</v>
@@ -4671,7 +4673,7 @@
     </row>
     <row r="232" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>23</v>
@@ -4688,7 +4690,7 @@
     </row>
     <row r="233" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>23</v>
@@ -4706,7 +4708,7 @@
     </row>
     <row r="234" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>23</v>
@@ -4724,7 +4726,7 @@
     </row>
     <row r="235" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>23</v>
@@ -4742,7 +4744,7 @@
     </row>
     <row r="236" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>23</v>
@@ -4760,7 +4762,7 @@
     </row>
     <row r="237" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>23</v>
@@ -4778,7 +4780,7 @@
     </row>
     <row r="238" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>23</v>
@@ -4796,7 +4798,7 @@
     </row>
     <row r="239" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>23</v>
@@ -4814,7 +4816,7 @@
     </row>
     <row r="240" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>23</v>
@@ -4832,7 +4834,7 @@
     </row>
     <row r="241" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
-        <v>44967</v>
+        <v>45332</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>23</v>
@@ -4850,7 +4852,7 @@
     </row>
     <row r="242" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>23</v>
@@ -4867,7 +4869,7 @@
     </row>
     <row r="243" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>23</v>
@@ -4885,7 +4887,7 @@
     </row>
     <row r="244" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>23</v>
@@ -4903,7 +4905,7 @@
     </row>
     <row r="245" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>23</v>
@@ -4921,7 +4923,7 @@
     </row>
     <row r="246" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>23</v>
@@ -4939,7 +4941,7 @@
     </row>
     <row r="247" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>23</v>
@@ -4957,7 +4959,7 @@
     </row>
     <row r="248" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>23</v>
@@ -4975,7 +4977,7 @@
     </row>
     <row r="249" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>23</v>
@@ -4993,7 +4995,7 @@
     </row>
     <row r="250" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>23</v>
@@ -5011,7 +5013,7 @@
     </row>
     <row r="251" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
-        <v>44974</v>
+        <v>45339</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>23</v>
@@ -5029,7 +5031,7 @@
     </row>
     <row r="252" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>23</v>
@@ -5046,7 +5048,7 @@
     </row>
     <row r="253" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>23</v>
@@ -5064,7 +5066,7 @@
     </row>
     <row r="254" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>23</v>
@@ -5082,7 +5084,7 @@
     </row>
     <row r="255" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>23</v>
@@ -5100,7 +5102,7 @@
     </row>
     <row r="256" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>23</v>
@@ -5118,7 +5120,7 @@
     </row>
     <row r="257" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>23</v>
@@ -5136,7 +5138,7 @@
     </row>
     <row r="258" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>23</v>
@@ -5154,7 +5156,7 @@
     </row>
     <row r="259" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>23</v>
@@ -5172,7 +5174,7 @@
     </row>
     <row r="260" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>23</v>
@@ -5190,7 +5192,7 @@
     </row>
     <row r="261" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4">
-        <v>44981</v>
+        <v>45346</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>23</v>
@@ -5208,7 +5210,7 @@
     </row>
     <row r="262" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>23</v>
@@ -5225,7 +5227,7 @@
     </row>
     <row r="263" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>23</v>
@@ -5243,7 +5245,7 @@
     </row>
     <row r="264" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>23</v>
@@ -5261,7 +5263,7 @@
     </row>
     <row r="265" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>23</v>
@@ -5279,7 +5281,7 @@
     </row>
     <row r="266" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>23</v>
@@ -5297,7 +5299,7 @@
     </row>
     <row r="267" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>23</v>
@@ -5315,7 +5317,7 @@
     </row>
     <row r="268" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>23</v>
@@ -5333,7 +5335,7 @@
     </row>
     <row r="269" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>23</v>
@@ -5351,7 +5353,7 @@
     </row>
     <row r="270" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>23</v>
@@ -5369,7 +5371,7 @@
     </row>
     <row r="271" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4">
-        <v>44987</v>
+        <v>45353</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>23</v>
@@ -5387,7 +5389,7 @@
     </row>
     <row r="272" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>23</v>
@@ -5404,7 +5406,7 @@
     </row>
     <row r="273" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>23</v>
@@ -5422,7 +5424,7 @@
     </row>
     <row r="274" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>23</v>
@@ -5440,7 +5442,7 @@
     </row>
     <row r="275" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>23</v>
@@ -5458,7 +5460,7 @@
     </row>
     <row r="276" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>23</v>
@@ -5476,7 +5478,7 @@
     </row>
     <row r="277" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>23</v>
@@ -5494,7 +5496,7 @@
     </row>
     <row r="278" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>23</v>
@@ -5512,7 +5514,7 @@
     </row>
     <row r="279" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>23</v>
@@ -5530,7 +5532,7 @@
     </row>
     <row r="280" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>23</v>
@@ -5548,7 +5550,7 @@
     </row>
     <row r="281" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4">
-        <v>44994</v>
+        <v>45360</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>23</v>
@@ -5566,7 +5568,7 @@
     </row>
     <row r="282" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>23</v>
@@ -5583,7 +5585,7 @@
     </row>
     <row r="283" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>23</v>
@@ -5601,7 +5603,7 @@
     </row>
     <row r="284" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>23</v>
@@ -5619,7 +5621,7 @@
     </row>
     <row r="285" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>23</v>
@@ -5637,7 +5639,7 @@
     </row>
     <row r="286" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>23</v>
@@ -5655,7 +5657,7 @@
     </row>
     <row r="287" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>23</v>
@@ -5673,7 +5675,7 @@
     </row>
     <row r="288" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>23</v>
@@ -5691,7 +5693,7 @@
     </row>
     <row r="289" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>23</v>
@@ -5709,7 +5711,7 @@
     </row>
     <row r="290" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>23</v>
@@ -5727,7 +5729,7 @@
     </row>
     <row r="291" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4">
-        <v>45001</v>
+        <v>45367</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>23</v>
@@ -5745,7 +5747,7 @@
     </row>
     <row r="292" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>23</v>
@@ -5762,7 +5764,7 @@
     </row>
     <row r="293" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>23</v>
@@ -5780,7 +5782,7 @@
     </row>
     <row r="294" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>23</v>
@@ -5798,7 +5800,7 @@
     </row>
     <row r="295" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>23</v>
@@ -5816,7 +5818,7 @@
     </row>
     <row r="296" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>23</v>
@@ -5834,7 +5836,7 @@
     </row>
     <row r="297" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>23</v>
@@ -5852,7 +5854,7 @@
     </row>
     <row r="298" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>23</v>
@@ -5870,7 +5872,7 @@
     </row>
     <row r="299" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>23</v>
@@ -5888,7 +5890,7 @@
     </row>
     <row r="300" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>23</v>
@@ -5906,7 +5908,7 @@
     </row>
     <row r="301" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="4">
-        <v>45015</v>
+        <v>45381</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>23</v>
@@ -5924,7 +5926,7 @@
     </row>
     <row r="302" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="4">
-        <v>45018</v>
+        <v>45384</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>23</v>
@@ -5941,7 +5943,7 @@
     </row>
     <row r="303" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4">
-        <v>45018</v>
+        <v>45384</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>23</v>
@@ -5959,7 +5961,7 @@
     </row>
     <row r="304" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="4">
-        <v>45018</v>
+        <v>45384</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>23</v>
@@ -5977,7 +5979,7 @@
     </row>
     <row r="305" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="4">
-        <v>45018</v>
+        <v>45384</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>23</v>
@@ -5995,7 +5997,7 @@
     </row>
     <row r="306" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4">
-        <v>45018</v>
+        <v>45384</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>23</v>
@@ -6013,7 +6015,7 @@
     </row>
     <row r="307" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="4">
-        <v>45018</v>
+        <v>45384</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>23</v>
@@ -6031,7 +6033,7 @@
     </row>
     <row r="308" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4">
-        <v>45019</v>
+        <v>45385</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>23</v>
@@ -6049,7 +6051,7 @@
     </row>
     <row r="309" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="4">
-        <v>45019</v>
+        <v>45385</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>23</v>
@@ -6067,7 +6069,7 @@
     </row>
     <row r="310" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4">
-        <v>45019</v>
+        <v>45385</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>23</v>
@@ -6085,7 +6087,7 @@
     </row>
     <row r="311" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="4">
-        <v>45019</v>
+        <v>45385</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>23</v>
@@ -6103,7 +6105,7 @@
     </row>
     <row r="312" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4">
-        <v>45022</v>
+        <v>45388</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>23</v>
@@ -6120,7 +6122,7 @@
     </row>
     <row r="313" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4">
-        <v>45022</v>
+        <v>45388</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>23</v>
@@ -6138,7 +6140,7 @@
     </row>
     <row r="314" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="4">
-        <v>45022</v>
+        <v>45388</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>23</v>
@@ -6156,7 +6158,7 @@
     </row>
     <row r="315" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="4">
-        <v>45022</v>
+        <v>45388</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>23</v>
@@ -6174,7 +6176,7 @@
     </row>
     <row r="316" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4">
-        <v>45022</v>
+        <v>45388</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>23</v>
@@ -6192,7 +6194,7 @@
     </row>
     <row r="317" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="4">
-        <v>45022</v>
+        <v>45388</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>23</v>
@@ -6210,7 +6212,7 @@
     </row>
     <row r="318" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4">
-        <v>45022</v>
+        <v>45388</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>23</v>
@@ -6228,7 +6230,7 @@
     </row>
     <row r="319" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="4">
-        <v>45022</v>
+        <v>45388</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>23</v>
@@ -6246,7 +6248,7 @@
     </row>
     <row r="320" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="4">
-        <v>45022</v>
+        <v>45388</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>23</v>
@@ -6264,7 +6266,7 @@
     </row>
     <row r="321" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="4">
-        <v>45022</v>
+        <v>45388</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>23</v>
@@ -6282,7 +6284,7 @@
     </row>
     <row r="322" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>23</v>
@@ -6299,7 +6301,7 @@
     </row>
     <row r="323" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>23</v>
@@ -6317,7 +6319,7 @@
     </row>
     <row r="324" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>23</v>
@@ -6335,7 +6337,7 @@
     </row>
     <row r="325" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>23</v>
@@ -6353,7 +6355,7 @@
     </row>
     <row r="326" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>23</v>
@@ -6371,7 +6373,7 @@
     </row>
     <row r="327" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>23</v>
@@ -6389,7 +6391,7 @@
     </row>
     <row r="328" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>23</v>
@@ -6407,7 +6409,7 @@
     </row>
     <row r="329" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>23</v>
@@ -6425,7 +6427,7 @@
     </row>
     <row r="330" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>23</v>
@@ -6443,7 +6445,7 @@
     </row>
     <row r="331" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="4">
-        <v>45029</v>
+        <v>45395</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>23</v>
@@ -6461,7 +6463,7 @@
     </row>
     <row r="332" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>23</v>
@@ -6478,7 +6480,7 @@
     </row>
     <row r="333" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>23</v>
@@ -6496,7 +6498,7 @@
     </row>
     <row r="334" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>23</v>
@@ -6514,7 +6516,7 @@
     </row>
     <row r="335" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>23</v>
@@ -6532,7 +6534,7 @@
     </row>
     <row r="336" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>23</v>
@@ -6550,7 +6552,7 @@
     </row>
     <row r="337" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>23</v>
@@ -6568,7 +6570,7 @@
     </row>
     <row r="338" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>23</v>
@@ -6586,7 +6588,7 @@
     </row>
     <row r="339" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>23</v>
@@ -6604,7 +6606,7 @@
     </row>
     <row r="340" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>23</v>
@@ -6622,7 +6624,7 @@
     </row>
     <row r="341" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="4">
-        <v>45036</v>
+        <v>45402</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>23</v>
@@ -6640,7 +6642,7 @@
     </row>
     <row r="342" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>23</v>
@@ -6657,7 +6659,7 @@
     </row>
     <row r="343" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>23</v>
@@ -6675,7 +6677,7 @@
     </row>
     <row r="344" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>23</v>
@@ -6693,7 +6695,7 @@
     </row>
     <row r="345" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>23</v>
@@ -6711,7 +6713,7 @@
     </row>
     <row r="346" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>23</v>
@@ -6729,7 +6731,7 @@
     </row>
     <row r="347" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>23</v>
@@ -6747,7 +6749,7 @@
     </row>
     <row r="348" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>23</v>
@@ -6765,7 +6767,7 @@
     </row>
     <row r="349" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>23</v>
@@ -6783,7 +6785,7 @@
     </row>
     <row r="350" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>23</v>
@@ -6801,7 +6803,7 @@
     </row>
     <row r="351" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="4">
-        <v>45043</v>
+        <v>45409</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>23</v>
@@ -6819,7 +6821,7 @@
     </row>
     <row r="352" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>23</v>
@@ -6836,7 +6838,7 @@
     </row>
     <row r="353" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>23</v>
@@ -6854,7 +6856,7 @@
     </row>
     <row r="354" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>23</v>
@@ -6872,7 +6874,7 @@
     </row>
     <row r="355" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>23</v>
@@ -6890,7 +6892,7 @@
     </row>
     <row r="356" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>23</v>
@@ -6908,7 +6910,7 @@
     </row>
     <row r="357" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>23</v>
@@ -6926,7 +6928,7 @@
     </row>
     <row r="358" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>23</v>
@@ -6944,7 +6946,7 @@
     </row>
     <row r="359" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>23</v>
@@ -6962,7 +6964,7 @@
     </row>
     <row r="360" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>23</v>
@@ -6980,7 +6982,7 @@
     </row>
     <row r="361" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4">
-        <v>45050</v>
+        <v>45416</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>23</v>
@@ -6998,7 +7000,7 @@
     </row>
     <row r="362" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>23</v>
@@ -7015,7 +7017,7 @@
     </row>
     <row r="363" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>23</v>
@@ -7033,7 +7035,7 @@
     </row>
     <row r="364" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>23</v>
@@ -7051,7 +7053,7 @@
     </row>
     <row r="365" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>23</v>
@@ -7069,7 +7071,7 @@
     </row>
     <row r="366" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>23</v>
@@ -7087,7 +7089,7 @@
     </row>
     <row r="367" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>23</v>
@@ -7105,7 +7107,7 @@
     </row>
     <row r="368" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>23</v>
@@ -7123,7 +7125,7 @@
     </row>
     <row r="369" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>23</v>
@@ -7141,7 +7143,7 @@
     </row>
     <row r="370" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>23</v>
@@ -7159,7 +7161,7 @@
     </row>
     <row r="371" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4">
-        <v>45057</v>
+        <v>45423</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>23</v>
@@ -7177,7 +7179,7 @@
     </row>
     <row r="372" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="4">
-        <v>45065</v>
+        <v>45431</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>23</v>
@@ -7194,7 +7196,7 @@
     </row>
     <row r="373" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="4">
-        <v>45065</v>
+        <v>45431</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>23</v>
@@ -7212,7 +7214,7 @@
     </row>
     <row r="374" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="4">
-        <v>45065</v>
+        <v>45431</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>23</v>
@@ -7230,7 +7232,7 @@
     </row>
     <row r="375" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="4">
-        <v>45065</v>
+        <v>45431</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>23</v>
@@ -7248,7 +7250,7 @@
     </row>
     <row r="376" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="4">
-        <v>45065</v>
+        <v>45431</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>23</v>
@@ -7266,7 +7268,7 @@
     </row>
     <row r="377" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="4">
-        <v>45065</v>
+        <v>45431</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>23</v>
@@ -7284,7 +7286,7 @@
     </row>
     <row r="378" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="4">
-        <v>45065</v>
+        <v>45431</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>23</v>
@@ -7302,7 +7304,7 @@
     </row>
     <row r="379" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="4">
-        <v>45065</v>
+        <v>45431</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>23</v>
@@ -7320,7 +7322,7 @@
     </row>
     <row r="380" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="4">
-        <v>45065</v>
+        <v>45431</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>23</v>
@@ -7338,7 +7340,7 @@
     </row>
     <row r="381" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="4">
-        <v>45065</v>
+        <v>45431</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>23</v>
